--- a/content/documents/4095-FCP Functional Checkout Procedure.xlsx
+++ b/content/documents/4095-FCP Functional Checkout Procedure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\glider-lab-manual\content\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367D434F-372D-4386-8616-8718C4A94FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6717622A-E17E-4B5D-8A51-9FABD9E886FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-3000" windowWidth="38640" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4095-FCP" sheetId="10" r:id="rId1"/>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="274">
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Disconnect the supply lead to the recovery system at the Mecca connector.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Verify that the voltage is at least 5 volts.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">5. Verify that the voltage is at least 5 volts. </t>
   </si>
   <si>
@@ -154,19 +148,6 @@
         <family val="3"/>
       </rPr>
       <t>strobe off</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. Type </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>put c_recovery_on 1</t>
     </r>
   </si>
   <si>
@@ -316,9 +297,6 @@
     </r>
   </si>
   <si>
-    <t>6. Verify that the voltage in the supply lead is zero and reconnect the Recovery System Supply Lead.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">3. Type </t>
     </r>
@@ -477,27 +455,6 @@
   </si>
   <si>
     <t>Digital multimeter</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. Type </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>put c_recovery_on 0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and wait for verification that the glider has accepted this command.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2568,25 +2525,7 @@
     <t xml:space="preserve">House Keeping and Glider Storage </t>
   </si>
   <si>
-    <t>NOTE: only perform step 1.20 if nose release recovery system is installed</t>
-  </si>
-  <si>
     <t>CAUTION: Ensure Glider is dry prior to performing step 1.20 and 1.21. The presence of salt water during these steps increases the potential for accidental initiation of the recovery system release and glider weight release.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. Connect the Digital Voltmeter between the Supply Lead and the forward Anode. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     Note: If forward anode is not providing a strong reading, probe between the Supply Lead and aft anode.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">3. Connect the Digital Voltmeter between the supply lead and aft anode assembly or the screws attaching the ejection weight tube. </t>
@@ -3847,132 +3786,474 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3980,14 +4261,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4003,388 +4284,46 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4481,8 +4420,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="171772" y="4817303"/>
-          <a:ext cx="571500" cy="639004"/>
+          <a:off x="167962" y="4765399"/>
+          <a:ext cx="571500" cy="637099"/>
           <a:chOff x="180975" y="1552575"/>
           <a:chExt cx="571500" cy="600075"/>
         </a:xfrm>
@@ -4970,23 +4909,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E252"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="69" zoomScaleNormal="70" zoomScaleSheetLayoutView="69" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A178" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152:E152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="67.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="1" max="1" width="13.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="67.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="3"/>
     <col min="8" max="8" width="11" style="3" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="3"/>
-    <col min="11" max="11" width="21.85546875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="10" width="9.109375" style="3"/>
+    <col min="11" max="11" width="21.88671875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="13" customFormat="1" ht="22.5" customHeight="1">
@@ -4994,10 +4933,10 @@
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="38" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="13" customFormat="1" ht="22.5" customHeight="1">
@@ -5005,10 +4944,10 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E2" s="68" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="13" customFormat="1" ht="22.5" customHeight="1">
@@ -5016,7 +4955,7 @@
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="38" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E3" s="68">
         <v>14775</v>
@@ -5030,60 +4969,60 @@
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" s="13" customFormat="1" ht="59.1" customHeight="1" thickBot="1">
-      <c r="A5" s="146" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-    </row>
-    <row r="6" spans="1:5" s="13" customFormat="1" ht="27.95" customHeight="1" thickBot="1">
-      <c r="A6" s="253" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="255"/>
+      <c r="A5" s="225" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="226"/>
+      <c r="C5" s="226"/>
+      <c r="D5" s="226"/>
+      <c r="E5" s="226"/>
+    </row>
+    <row r="6" spans="1:5" s="13" customFormat="1" ht="27.9" customHeight="1" thickBot="1">
+      <c r="A6" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="99"/>
     </row>
     <row r="7" spans="1:5" ht="47.1" customHeight="1">
       <c r="A7" s="60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="61"/>
       <c r="C7" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-    </row>
-    <row r="8" spans="1:5" ht="36.950000000000003" customHeight="1">
+        <v>117</v>
+      </c>
+      <c r="D7" s="235"/>
+      <c r="E7" s="235"/>
+    </row>
+    <row r="8" spans="1:5" ht="36.9" customHeight="1">
       <c r="A8" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
-    </row>
-    <row r="9" spans="1:5" ht="36.950000000000003" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="244"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+    </row>
+    <row r="9" spans="1:5" ht="36.9" customHeight="1">
       <c r="A9" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-    </row>
-    <row r="10" spans="1:5" ht="36.950000000000003" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="B9" s="244"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+    </row>
+    <row r="10" spans="1:5" ht="36.9" customHeight="1">
       <c r="A10" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="167"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="166"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="244"/>
+      <c r="D10" s="244"/>
+      <c r="E10" s="244"/>
     </row>
     <row r="11" spans="1:5" ht="20.25" customHeight="1" thickBot="1">
       <c r="A11" s="1"/>
@@ -5093,22 +5032,22 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" s="13" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A12" s="158"/>
-      <c r="B12" s="159" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="161"/>
-    </row>
-    <row r="13" spans="1:5" s="13" customFormat="1" ht="78.95" customHeight="1" thickBot="1">
-      <c r="A13" s="158"/>
-      <c r="B13" s="162" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="164"/>
+      <c r="A12" s="237"/>
+      <c r="B12" s="238" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="239"/>
+      <c r="D12" s="239"/>
+      <c r="E12" s="240"/>
+    </row>
+    <row r="13" spans="1:5" s="13" customFormat="1" ht="78.900000000000006" customHeight="1" thickBot="1">
+      <c r="A13" s="237"/>
+      <c r="B13" s="241" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="242"/>
+      <c r="D13" s="242"/>
+      <c r="E13" s="243"/>
     </row>
     <row r="14" spans="1:5" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="B14" s="16"/>
@@ -5117,22 +5056,22 @@
       <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" s="13" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A15" s="178" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="180"/>
+      <c r="A15" s="185" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="187"/>
     </row>
     <row r="16" spans="1:5" s="13" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A16" s="181" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="182"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="183"/>
+      <c r="A16" s="188" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="189"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="190"/>
     </row>
     <row r="17" spans="1:5" ht="20.25" customHeight="1" thickBot="1">
       <c r="B17" s="6"/>
@@ -5141,1905 +5080,1889 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" s="13" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A18" s="184" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="185"/>
-      <c r="C18" s="185"/>
-      <c r="D18" s="185"/>
-      <c r="E18" s="186"/>
+      <c r="A18" s="191" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="192"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="193"/>
     </row>
     <row r="19" spans="1:5" s="13" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A19" s="157" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156"/>
+      <c r="A19" s="194" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="195"/>
+      <c r="C19" s="195" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="195"/>
+      <c r="E19" s="236"/>
     </row>
     <row r="20" spans="1:5" s="13" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A20" s="157" t="s">
+      <c r="A20" s="194" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="195"/>
+      <c r="C20" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="155"/>
-      <c r="C20" s="155" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="155"/>
-      <c r="E20" s="156"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="236"/>
     </row>
     <row r="21" spans="1:5" s="13" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A21" s="157" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="155"/>
-      <c r="C21" s="198" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="198"/>
-      <c r="E21" s="210"/>
+      <c r="A21" s="194" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="195"/>
+      <c r="C21" s="205" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="205"/>
+      <c r="E21" s="216"/>
     </row>
     <row r="22" spans="1:5" s="13" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A22" s="212" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="213"/>
-      <c r="C22" s="213"/>
-      <c r="D22" s="213"/>
-      <c r="E22" s="214"/>
+      <c r="A22" s="218" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="169"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="170"/>
     </row>
     <row r="23" spans="1:5" s="13" customFormat="1" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A23" s="211" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="211"/>
-      <c r="C23" s="211"/>
-      <c r="D23" s="211"/>
-      <c r="E23" s="211"/>
+      <c r="A23" s="217" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="217"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="217"/>
     </row>
     <row r="24" spans="1:5" s="13" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A24" s="215" t="s">
+      <c r="A24" s="171" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="171"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="24" customHeight="1">
+      <c r="A25" s="172">
+        <v>1</v>
+      </c>
+      <c r="B25" s="196" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="196"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="69"/>
+    </row>
+    <row r="26" spans="1:5" ht="24" customHeight="1">
+      <c r="A26" s="111"/>
+      <c r="B26" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="215"/>
-      <c r="C24" s="215"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="24" customHeight="1">
-      <c r="A25" s="216">
-        <v>1</v>
-      </c>
-      <c r="B25" s="187" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="187"/>
-      <c r="D25" s="187"/>
-      <c r="E25" s="69"/>
-    </row>
-    <row r="26" spans="1:5" ht="24" customHeight="1">
-      <c r="A26" s="104"/>
-      <c r="B26" s="110" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
       <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:5" ht="24" customHeight="1">
-      <c r="A27" s="104"/>
-      <c r="B27" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="111"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="159"/>
     </row>
     <row r="28" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A28" s="104"/>
-      <c r="B28" s="138" t="s">
+      <c r="A28" s="111"/>
+      <c r="B28" s="200" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="159"/>
+    </row>
+    <row r="29" spans="1:5" ht="45" customHeight="1">
+      <c r="A29" s="111"/>
+      <c r="B29" s="173" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="194"/>
-      <c r="D28" s="195"/>
-      <c r="E28" s="111"/>
-    </row>
-    <row r="29" spans="1:5" ht="45" customHeight="1">
-      <c r="A29" s="104"/>
-      <c r="B29" s="165" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="111"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="159"/>
     </row>
     <row r="30" spans="1:5" ht="24" customHeight="1">
-      <c r="A30" s="104"/>
-      <c r="B30" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="114" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
       <c r="E30" s="31"/>
     </row>
     <row r="31" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A31" s="104"/>
-      <c r="B31" s="110" t="s">
-        <v>182</v>
-      </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="114" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
       <c r="E31" s="31"/>
     </row>
     <row r="32" spans="1:5" ht="24" customHeight="1">
-      <c r="A32" s="104"/>
-      <c r="B32" s="138" t="s">
-        <v>195</v>
-      </c>
-      <c r="C32" s="139"/>
-      <c r="D32" s="196"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="200" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="203"/>
+      <c r="D32" s="204"/>
       <c r="E32" s="31"/>
     </row>
     <row r="33" spans="1:5" ht="24" customHeight="1">
-      <c r="A33" s="104"/>
-      <c r="B33" s="110" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="111"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="114" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="159"/>
     </row>
     <row r="34" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A34" s="104"/>
-      <c r="B34" s="165" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="111"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="173" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="173"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="159"/>
     </row>
     <row r="35" spans="1:5" ht="24" customHeight="1">
-      <c r="A35" s="104"/>
+      <c r="A35" s="111"/>
       <c r="B35" s="32" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D35" s="54"/>
       <c r="E35" s="70"/>
     </row>
     <row r="36" spans="1:5" ht="24" customHeight="1">
-      <c r="A36" s="103"/>
-      <c r="B36" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
       <c r="E36" s="31"/>
     </row>
     <row r="37" spans="1:5" ht="24" customHeight="1">
-      <c r="A37" s="148" t="s">
-        <v>145</v>
-      </c>
-      <c r="B37" s="149"/>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="150"/>
+      <c r="A37" s="227" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="228"/>
+      <c r="C37" s="228"/>
+      <c r="D37" s="228"/>
+      <c r="E37" s="229"/>
     </row>
     <row r="38" spans="1:5" ht="24" customHeight="1">
-      <c r="A38" s="123">
+      <c r="A38" s="143">
         <v>1.01</v>
       </c>
-      <c r="B38" s="145" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
+      <c r="B38" s="120" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="46"/>
     </row>
     <row r="39" spans="1:5" ht="24" customHeight="1">
-      <c r="A39" s="124"/>
-      <c r="B39" s="197" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" s="198"/>
-      <c r="D39" s="198"/>
+      <c r="A39" s="144"/>
+      <c r="B39" s="102" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="205"/>
+      <c r="D39" s="205"/>
       <c r="E39" s="46"/>
     </row>
     <row r="40" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A40" s="124"/>
-      <c r="B40" s="168" t="s">
-        <v>201</v>
-      </c>
-      <c r="C40" s="168"/>
-      <c r="D40" s="168"/>
-      <c r="E40" s="169"/>
+      <c r="A40" s="144"/>
+      <c r="B40" s="246" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="246"/>
+      <c r="D40" s="246"/>
+      <c r="E40" s="247"/>
     </row>
     <row r="41" spans="1:5" ht="24" customHeight="1">
-      <c r="A41" s="124"/>
-      <c r="B41" s="145" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
+      <c r="A41" s="144"/>
+      <c r="B41" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="121"/>
+      <c r="D41" s="121"/>
       <c r="E41" s="46"/>
     </row>
     <row r="42" spans="1:5" ht="24" customHeight="1">
-      <c r="A42" s="124"/>
-      <c r="B42" s="201" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="217"/>
-      <c r="D42" s="217"/>
+      <c r="A42" s="144"/>
+      <c r="B42" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="175"/>
+      <c r="D42" s="175"/>
       <c r="E42" s="46"/>
     </row>
     <row r="43" spans="1:5" ht="24" customHeight="1">
-      <c r="A43" s="124"/>
-      <c r="B43" s="201" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="217"/>
+      <c r="A43" s="144"/>
+      <c r="B43" s="174" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="175"/>
+      <c r="D43" s="175"/>
       <c r="E43" s="46"/>
     </row>
     <row r="44" spans="1:5" ht="24" customHeight="1">
-      <c r="A44" s="124"/>
-      <c r="B44" s="199" t="s">
-        <v>280</v>
-      </c>
-      <c r="C44" s="200"/>
-      <c r="D44" s="201"/>
+      <c r="A44" s="144"/>
+      <c r="B44" s="206" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" s="207"/>
+      <c r="D44" s="174"/>
       <c r="E44" s="46"/>
     </row>
     <row r="45" spans="1:5" ht="24" customHeight="1">
-      <c r="A45" s="124"/>
-      <c r="B45" s="218" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="218"/>
-      <c r="D45" s="218"/>
+      <c r="A45" s="144"/>
+      <c r="B45" s="176" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="176"/>
+      <c r="D45" s="176"/>
       <c r="E45" s="46"/>
     </row>
     <row r="46" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A46" s="124"/>
-      <c r="B46" s="202" t="s">
-        <v>250</v>
-      </c>
-      <c r="C46" s="204" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="206"/>
-      <c r="E46" s="207"/>
+      <c r="A46" s="144"/>
+      <c r="B46" s="208" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" s="210" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="212"/>
+      <c r="E46" s="213"/>
     </row>
     <row r="47" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A47" s="125"/>
-      <c r="B47" s="203"/>
-      <c r="C47" s="205"/>
-      <c r="D47" s="208"/>
-      <c r="E47" s="209"/>
+      <c r="A47" s="145"/>
+      <c r="B47" s="209"/>
+      <c r="C47" s="211"/>
+      <c r="D47" s="214"/>
+      <c r="E47" s="215"/>
     </row>
     <row r="48" spans="1:5" ht="24" customHeight="1">
-      <c r="A48" s="102">
+      <c r="A48" s="110">
         <v>1.02</v>
       </c>
       <c r="B48" s="49" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="D48" s="222"/>
-      <c r="E48" s="223"/>
+        <v>178</v>
+      </c>
+      <c r="D48" s="180"/>
+      <c r="E48" s="181"/>
     </row>
     <row r="49" spans="1:5" ht="36" customHeight="1">
-      <c r="A49" s="104"/>
-      <c r="B49" s="114" t="s">
-        <v>209</v>
-      </c>
-      <c r="C49" s="110"/>
-      <c r="D49" s="110"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="115" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
       <c r="E49" s="31"/>
     </row>
     <row r="50" spans="1:5" ht="60" customHeight="1">
-      <c r="A50" s="104"/>
-      <c r="B50" s="113" t="s">
-        <v>203</v>
-      </c>
-      <c r="C50" s="113"/>
-      <c r="D50" s="114"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="138" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" s="138"/>
+      <c r="D50" s="115"/>
       <c r="E50" s="31"/>
     </row>
     <row r="51" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A51" s="104"/>
+      <c r="A51" s="111"/>
       <c r="B51" s="47" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D51" s="54"/>
       <c r="E51" s="70"/>
     </row>
     <row r="52" spans="1:5" ht="60" customHeight="1">
-      <c r="A52" s="103"/>
-      <c r="B52" s="175" t="s">
-        <v>196</v>
-      </c>
-      <c r="C52" s="175"/>
-      <c r="D52" s="175"/>
-      <c r="E52" s="176"/>
+      <c r="A52" s="112"/>
+      <c r="B52" s="223" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" s="223"/>
+      <c r="D52" s="223"/>
+      <c r="E52" s="224"/>
     </row>
     <row r="53" spans="1:5" ht="26.1" customHeight="1">
-      <c r="A53" s="99" t="s">
+      <c r="A53" s="161" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="162"/>
+      <c r="C53" s="162"/>
+      <c r="D53" s="162"/>
+      <c r="E53" s="163"/>
+    </row>
+    <row r="54" spans="1:5" ht="24" customHeight="1">
+      <c r="A54" s="182">
+        <v>1.03</v>
+      </c>
+      <c r="B54" s="184" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
+      <c r="E54" s="29"/>
+    </row>
+    <row r="55" spans="1:5" ht="60" customHeight="1">
+      <c r="A55" s="183"/>
+      <c r="B55" s="177" t="s">
+        <v>256</v>
+      </c>
+      <c r="C55" s="178"/>
+      <c r="D55" s="179"/>
+      <c r="E55" s="29"/>
+    </row>
+    <row r="56" spans="1:5" ht="24" customHeight="1">
+      <c r="A56" s="183"/>
+      <c r="B56" s="184" t="s">
+        <v>206</v>
+      </c>
+      <c r="C56" s="184"/>
+      <c r="D56" s="184"/>
+      <c r="E56" s="29"/>
+    </row>
+    <row r="57" spans="1:5" ht="45" customHeight="1">
+      <c r="A57" s="183"/>
+      <c r="B57" s="158" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" s="158"/>
+      <c r="D57" s="158"/>
+      <c r="E57" s="29"/>
+    </row>
+    <row r="58" spans="1:5" ht="24" customHeight="1">
+      <c r="A58" s="183"/>
+      <c r="B58" s="184" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="184"/>
+      <c r="D58" s="184"/>
+      <c r="E58" s="29"/>
+    </row>
+    <row r="59" spans="1:5" ht="45" customHeight="1">
+      <c r="A59" s="183"/>
+      <c r="B59" s="184" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="184"/>
+      <c r="D59" s="184"/>
+      <c r="E59" s="29"/>
+    </row>
+    <row r="60" spans="1:5" ht="24" customHeight="1">
+      <c r="A60" s="183"/>
+      <c r="B60" s="220" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" s="220"/>
+      <c r="D60" s="220"/>
+      <c r="E60" s="71"/>
+    </row>
+    <row r="61" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1">
+      <c r="A61" s="183"/>
+      <c r="B61" s="221" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" s="222"/>
+      <c r="D61" s="222"/>
+      <c r="E61" s="29"/>
+    </row>
+    <row r="62" spans="1:5" ht="24" customHeight="1">
+      <c r="A62" s="110">
+        <v>1.04</v>
+      </c>
+      <c r="B62" s="197" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="198"/>
+      <c r="D62" s="199"/>
+      <c r="E62" s="72"/>
+    </row>
+    <row r="63" spans="1:5" ht="34.35" customHeight="1">
+      <c r="A63" s="111"/>
+      <c r="B63" s="116" t="s">
+        <v>253</v>
+      </c>
+      <c r="C63" s="117"/>
+      <c r="D63" s="118"/>
+      <c r="E63" s="31"/>
+    </row>
+    <row r="64" spans="1:5" ht="34.35" customHeight="1">
+      <c r="A64" s="111"/>
+      <c r="B64" s="116" t="s">
+        <v>254</v>
+      </c>
+      <c r="C64" s="117"/>
+      <c r="D64" s="118"/>
+      <c r="E64" s="31"/>
+    </row>
+    <row r="65" spans="1:5" ht="34.35" customHeight="1">
+      <c r="A65" s="111"/>
+      <c r="B65" s="116" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="117"/>
+      <c r="D65" s="118"/>
+      <c r="E65" s="31"/>
+    </row>
+    <row r="66" spans="1:5" ht="24" customHeight="1">
+      <c r="A66" s="111"/>
+      <c r="B66" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" s="117"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="31"/>
+    </row>
+    <row r="67" spans="1:5" ht="24" customHeight="1">
+      <c r="A67" s="112"/>
+      <c r="B67" s="116" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="117"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="31"/>
+    </row>
+    <row r="68" spans="1:5" ht="26.1" customHeight="1">
+      <c r="A68" s="161" t="s">
         <v>200</v>
       </c>
-      <c r="B53" s="100"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="100"/>
-      <c r="E53" s="101"/>
-    </row>
-    <row r="54" spans="1:5" ht="24" customHeight="1">
-      <c r="A54" s="224">
-        <v>1.03</v>
-      </c>
-      <c r="B54" s="171" t="s">
-        <v>210</v>
-      </c>
-      <c r="C54" s="171"/>
-      <c r="D54" s="171"/>
-      <c r="E54" s="29"/>
-    </row>
-    <row r="55" spans="1:5" ht="60" customHeight="1">
-      <c r="A55" s="225"/>
-      <c r="B55" s="219" t="s">
-        <v>261</v>
-      </c>
-      <c r="C55" s="220"/>
-      <c r="D55" s="221"/>
-      <c r="E55" s="29"/>
-    </row>
-    <row r="56" spans="1:5" ht="24" customHeight="1">
-      <c r="A56" s="225"/>
-      <c r="B56" s="171" t="s">
-        <v>211</v>
-      </c>
-      <c r="C56" s="171"/>
-      <c r="D56" s="171"/>
-      <c r="E56" s="29"/>
-    </row>
-    <row r="57" spans="1:5" ht="45" customHeight="1">
-      <c r="A57" s="225"/>
-      <c r="B57" s="226" t="s">
-        <v>212</v>
-      </c>
-      <c r="C57" s="226"/>
-      <c r="D57" s="226"/>
-      <c r="E57" s="29"/>
-    </row>
-    <row r="58" spans="1:5" ht="24" customHeight="1">
-      <c r="A58" s="225"/>
-      <c r="B58" s="171" t="s">
-        <v>213</v>
-      </c>
-      <c r="C58" s="171"/>
-      <c r="D58" s="171"/>
-      <c r="E58" s="29"/>
-    </row>
-    <row r="59" spans="1:5" ht="45" customHeight="1">
-      <c r="A59" s="225"/>
-      <c r="B59" s="171" t="s">
-        <v>257</v>
-      </c>
-      <c r="C59" s="171"/>
-      <c r="D59" s="171"/>
-      <c r="E59" s="29"/>
-    </row>
-    <row r="60" spans="1:5" ht="24" customHeight="1">
-      <c r="A60" s="225"/>
-      <c r="B60" s="172" t="s">
-        <v>214</v>
-      </c>
-      <c r="C60" s="172"/>
-      <c r="D60" s="172"/>
-      <c r="E60" s="71"/>
-    </row>
-    <row r="61" spans="1:5" s="1" customFormat="1" ht="24" customHeight="1">
-      <c r="A61" s="225"/>
-      <c r="B61" s="173" t="s">
-        <v>215</v>
-      </c>
-      <c r="C61" s="174"/>
-      <c r="D61" s="174"/>
-      <c r="E61" s="29"/>
-    </row>
-    <row r="62" spans="1:5" ht="24" customHeight="1">
-      <c r="A62" s="102">
-        <v>1.04</v>
-      </c>
-      <c r="B62" s="188" t="s">
-        <v>191</v>
-      </c>
-      <c r="C62" s="189"/>
-      <c r="D62" s="190"/>
-      <c r="E62" s="72"/>
-    </row>
-    <row r="63" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A63" s="104"/>
-      <c r="B63" s="191" t="s">
-        <v>258</v>
-      </c>
-      <c r="C63" s="192"/>
-      <c r="D63" s="193"/>
-      <c r="E63" s="31"/>
-    </row>
-    <row r="64" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A64" s="104"/>
-      <c r="B64" s="191" t="s">
-        <v>259</v>
-      </c>
-      <c r="C64" s="192"/>
-      <c r="D64" s="193"/>
-      <c r="E64" s="31"/>
-    </row>
-    <row r="65" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A65" s="104"/>
-      <c r="B65" s="191" t="s">
-        <v>260</v>
-      </c>
-      <c r="C65" s="192"/>
-      <c r="D65" s="193"/>
-      <c r="E65" s="31"/>
-    </row>
-    <row r="66" spans="1:5" ht="24" customHeight="1">
-      <c r="A66" s="104"/>
-      <c r="B66" s="191" t="s">
-        <v>192</v>
-      </c>
-      <c r="C66" s="192"/>
-      <c r="D66" s="193"/>
-      <c r="E66" s="31"/>
-    </row>
-    <row r="67" spans="1:5" ht="24" customHeight="1">
-      <c r="A67" s="103"/>
-      <c r="B67" s="191" t="s">
-        <v>193</v>
-      </c>
-      <c r="C67" s="192"/>
-      <c r="D67" s="193"/>
-      <c r="E67" s="31"/>
-    </row>
-    <row r="68" spans="1:5" ht="26.1" customHeight="1">
-      <c r="A68" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="B68" s="100"/>
-      <c r="C68" s="100"/>
-      <c r="D68" s="100"/>
-      <c r="E68" s="101"/>
+      <c r="B68" s="162"/>
+      <c r="C68" s="162"/>
+      <c r="D68" s="162"/>
+      <c r="E68" s="163"/>
     </row>
     <row r="69" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A69" s="123">
+      <c r="A69" s="143">
         <v>1.05</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D69" s="25"/>
       <c r="E69" s="29"/>
     </row>
     <row r="70" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A70" s="124"/>
+      <c r="A70" s="144"/>
       <c r="B70" s="19" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D70" s="25"/>
       <c r="E70" s="29"/>
     </row>
     <row r="71" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A71" s="124"/>
+      <c r="A71" s="144"/>
       <c r="B71" s="19" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="29"/>
     </row>
     <row r="72" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A72" s="124"/>
+      <c r="A72" s="144"/>
       <c r="B72" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D72" s="25"/>
       <c r="E72" s="73"/>
     </row>
     <row r="73" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A73" s="125"/>
-      <c r="B73" s="250" t="s">
-        <v>208</v>
-      </c>
-      <c r="C73" s="251"/>
-      <c r="D73" s="252"/>
+      <c r="A73" s="145"/>
+      <c r="B73" s="94" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" s="95"/>
+      <c r="D73" s="96"/>
       <c r="E73" s="73"/>
     </row>
     <row r="74" spans="1:5" ht="24" customHeight="1">
-      <c r="A74" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" s="152"/>
-      <c r="C74" s="152"/>
-      <c r="D74" s="152"/>
-      <c r="E74" s="153"/>
+      <c r="A74" s="230" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74" s="231"/>
+      <c r="C74" s="231"/>
+      <c r="D74" s="231"/>
+      <c r="E74" s="232"/>
     </row>
     <row r="75" spans="1:5" ht="26.1" customHeight="1">
-      <c r="A75" s="99" t="s">
-        <v>217</v>
-      </c>
-      <c r="B75" s="100"/>
-      <c r="C75" s="100"/>
-      <c r="D75" s="100"/>
-      <c r="E75" s="101"/>
+      <c r="A75" s="161" t="s">
+        <v>212</v>
+      </c>
+      <c r="B75" s="162"/>
+      <c r="C75" s="162"/>
+      <c r="D75" s="162"/>
+      <c r="E75" s="163"/>
     </row>
     <row r="76" spans="1:5" ht="24" customHeight="1">
-      <c r="A76" s="102">
+      <c r="A76" s="110">
         <v>1.06</v>
       </c>
-      <c r="B76" s="141" t="s">
-        <v>219</v>
-      </c>
-      <c r="C76" s="141"/>
-      <c r="D76" s="141"/>
-      <c r="E76" s="142"/>
+      <c r="B76" s="253" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="253"/>
+      <c r="D76" s="253"/>
+      <c r="E76" s="254"/>
     </row>
     <row r="77" spans="1:5" ht="24" customHeight="1">
-      <c r="A77" s="103"/>
-      <c r="B77" s="114" t="s">
-        <v>251</v>
-      </c>
-      <c r="C77" s="110"/>
-      <c r="D77" s="110"/>
+      <c r="A77" s="112"/>
+      <c r="B77" s="115" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="114"/>
+      <c r="D77" s="114"/>
       <c r="E77" s="31"/>
     </row>
     <row r="78" spans="1:5" ht="32.1" customHeight="1">
-      <c r="A78" s="123">
+      <c r="A78" s="143">
         <v>1.07</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D78" s="25"/>
       <c r="E78" s="29"/>
     </row>
     <row r="79" spans="1:5" ht="24" customHeight="1">
-      <c r="A79" s="124"/>
+      <c r="A79" s="144"/>
       <c r="B79" s="51" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D79" s="25"/>
       <c r="E79" s="74"/>
     </row>
     <row r="80" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A80" s="125"/>
-      <c r="B80" s="143" t="s">
-        <v>276</v>
-      </c>
-      <c r="C80" s="143"/>
-      <c r="D80" s="144"/>
+      <c r="A80" s="145"/>
+      <c r="B80" s="255" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" s="255"/>
+      <c r="D80" s="256"/>
       <c r="E80" s="29"/>
     </row>
     <row r="81" spans="1:5" ht="26.1" customHeight="1">
-      <c r="A81" s="99" t="s">
-        <v>216</v>
-      </c>
-      <c r="B81" s="100"/>
-      <c r="C81" s="100"/>
-      <c r="D81" s="100"/>
-      <c r="E81" s="101"/>
+      <c r="A81" s="161" t="s">
+        <v>211</v>
+      </c>
+      <c r="B81" s="162"/>
+      <c r="C81" s="162"/>
+      <c r="D81" s="162"/>
+      <c r="E81" s="163"/>
     </row>
     <row r="82" spans="1:5" ht="24" customHeight="1">
-      <c r="A82" s="134">
+      <c r="A82" s="113">
         <v>1.08</v>
       </c>
-      <c r="B82" s="110" t="s">
-        <v>148</v>
-      </c>
-      <c r="C82" s="110"/>
-      <c r="D82" s="110"/>
+      <c r="B82" s="114" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
       <c r="E82" s="31"/>
     </row>
     <row r="83" spans="1:5" ht="24" customHeight="1">
-      <c r="A83" s="134"/>
-      <c r="B83" s="110" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" s="110"/>
-      <c r="D83" s="110"/>
+      <c r="A83" s="113"/>
+      <c r="B83" s="114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="114"/>
+      <c r="D83" s="114"/>
       <c r="E83" s="31"/>
     </row>
     <row r="84" spans="1:5" ht="24" customHeight="1">
-      <c r="A84" s="134"/>
-      <c r="B84" s="110" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" s="110"/>
-      <c r="D84" s="110"/>
+      <c r="A84" s="113"/>
+      <c r="B84" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="114"/>
+      <c r="D84" s="114"/>
       <c r="E84" s="31"/>
     </row>
     <row r="85" spans="1:5" ht="24" customHeight="1">
-      <c r="A85" s="134"/>
-      <c r="B85" s="110" t="s">
-        <v>110</v>
-      </c>
-      <c r="C85" s="110"/>
-      <c r="D85" s="110"/>
+      <c r="A85" s="113"/>
+      <c r="B85" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" s="114"/>
+      <c r="D85" s="114"/>
       <c r="E85" s="31"/>
     </row>
     <row r="86" spans="1:5" ht="24" customHeight="1">
-      <c r="A86" s="134"/>
-      <c r="B86" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C86" s="110"/>
-      <c r="D86" s="110"/>
+      <c r="A86" s="113"/>
+      <c r="B86" s="114" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="114"/>
+      <c r="D86" s="114"/>
       <c r="E86" s="31"/>
     </row>
     <row r="87" spans="1:5" ht="24" customHeight="1">
-      <c r="A87" s="134"/>
-      <c r="B87" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="C87" s="110"/>
-      <c r="D87" s="110"/>
+      <c r="A87" s="113"/>
+      <c r="B87" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" s="114"/>
+      <c r="D87" s="114"/>
       <c r="E87" s="31"/>
     </row>
     <row r="88" spans="1:5" ht="24" customHeight="1">
-      <c r="A88" s="134"/>
-      <c r="B88" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="C88" s="110"/>
-      <c r="D88" s="110"/>
+      <c r="A88" s="113"/>
+      <c r="B88" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" s="114"/>
+      <c r="D88" s="114"/>
       <c r="E88" s="31"/>
     </row>
     <row r="89" spans="1:5" ht="24" customHeight="1">
-      <c r="A89" s="123">
+      <c r="A89" s="143">
         <v>1.0900000000000001</v>
       </c>
-      <c r="B89" s="118" t="s">
-        <v>36</v>
-      </c>
-      <c r="C89" s="118"/>
-      <c r="D89" s="118"/>
+      <c r="B89" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" s="121"/>
+      <c r="D89" s="121"/>
       <c r="E89" s="29"/>
     </row>
     <row r="90" spans="1:5" ht="24" customHeight="1">
-      <c r="A90" s="124"/>
-      <c r="B90" s="118" t="s">
+      <c r="A90" s="144"/>
+      <c r="B90" s="121" t="s">
+        <v>213</v>
+      </c>
+      <c r="C90" s="121"/>
+      <c r="D90" s="121"/>
+      <c r="E90" s="29"/>
+    </row>
+    <row r="91" spans="1:5" ht="34.35" customHeight="1">
+      <c r="A91" s="144"/>
+      <c r="B91" s="121" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" s="121"/>
+      <c r="D91" s="121"/>
+      <c r="E91" s="29"/>
+    </row>
+    <row r="92" spans="1:5" ht="24" customHeight="1">
+      <c r="A92" s="144"/>
+      <c r="B92" s="152" t="s">
+        <v>217</v>
+      </c>
+      <c r="C92" s="153"/>
+      <c r="D92" s="120"/>
+      <c r="E92" s="29"/>
+    </row>
+    <row r="93" spans="1:5" ht="34.35" customHeight="1">
+      <c r="A93" s="144"/>
+      <c r="B93" s="152" t="s">
         <v>218</v>
       </c>
-      <c r="C90" s="118"/>
-      <c r="D90" s="118"/>
-      <c r="E90" s="29"/>
-    </row>
-    <row r="91" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A91" s="124"/>
-      <c r="B91" s="118" t="s">
-        <v>225</v>
-      </c>
-      <c r="C91" s="118"/>
-      <c r="D91" s="118"/>
-      <c r="E91" s="29"/>
-    </row>
-    <row r="92" spans="1:5" ht="24" customHeight="1">
-      <c r="A92" s="124"/>
-      <c r="B92" s="120" t="s">
+      <c r="C93" s="153"/>
+      <c r="D93" s="120"/>
+      <c r="E93" s="29"/>
+    </row>
+    <row r="94" spans="1:5" ht="24" customHeight="1">
+      <c r="A94" s="145"/>
+      <c r="B94" s="152" t="s">
+        <v>219</v>
+      </c>
+      <c r="C94" s="153"/>
+      <c r="D94" s="120"/>
+      <c r="E94" s="29"/>
+    </row>
+    <row r="95" spans="1:5" ht="24" customHeight="1">
+      <c r="A95" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="B95" s="114" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" s="114"/>
+      <c r="D95" s="114"/>
+      <c r="E95" s="159"/>
+    </row>
+    <row r="96" spans="1:5" ht="24" customHeight="1">
+      <c r="A96" s="113"/>
+      <c r="B96" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" s="114"/>
+      <c r="D96" s="114"/>
+      <c r="E96" s="159"/>
+    </row>
+    <row r="97" spans="1:5" ht="24" customHeight="1">
+      <c r="A97" s="130" t="s">
+        <v>181</v>
+      </c>
+      <c r="B97" s="121" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" s="121"/>
+      <c r="D97" s="121"/>
+      <c r="E97" s="160"/>
+    </row>
+    <row r="98" spans="1:5" ht="24" customHeight="1">
+      <c r="A98" s="130"/>
+      <c r="B98" s="121" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="121"/>
+      <c r="D98" s="121"/>
+      <c r="E98" s="160"/>
+    </row>
+    <row r="99" spans="1:5" ht="24" customHeight="1">
+      <c r="A99" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="B99" s="114" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" s="114"/>
+      <c r="D99" s="114"/>
+      <c r="E99" s="159"/>
+    </row>
+    <row r="100" spans="1:5" ht="24" customHeight="1">
+      <c r="A100" s="113"/>
+      <c r="B100" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="114"/>
+      <c r="D100" s="114"/>
+      <c r="E100" s="159"/>
+    </row>
+    <row r="101" spans="1:5" ht="24" customHeight="1">
+      <c r="A101" s="130" t="s">
+        <v>183</v>
+      </c>
+      <c r="B101" s="121" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" s="121"/>
+      <c r="D101" s="121"/>
+      <c r="E101" s="160"/>
+    </row>
+    <row r="102" spans="1:5" ht="24" customHeight="1">
+      <c r="A102" s="130"/>
+      <c r="B102" s="121" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" s="121"/>
+      <c r="D102" s="121"/>
+      <c r="E102" s="160"/>
+    </row>
+    <row r="103" spans="1:5" ht="24" customHeight="1">
+      <c r="A103" s="113" t="s">
+        <v>184</v>
+      </c>
+      <c r="B103" s="114" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="114"/>
+      <c r="D103" s="114"/>
+      <c r="E103" s="159"/>
+    </row>
+    <row r="104" spans="1:5" ht="24" customHeight="1">
+      <c r="A104" s="113"/>
+      <c r="B104" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="114"/>
+      <c r="D104" s="114"/>
+      <c r="E104" s="159"/>
+    </row>
+    <row r="105" spans="1:5" ht="24" customHeight="1">
+      <c r="A105" s="130" t="s">
+        <v>185</v>
+      </c>
+      <c r="B105" s="121" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="121"/>
+      <c r="D105" s="121"/>
+      <c r="E105" s="160"/>
+    </row>
+    <row r="106" spans="1:5" ht="24" customHeight="1">
+      <c r="A106" s="130"/>
+      <c r="B106" s="121" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="121"/>
+      <c r="D106" s="121"/>
+      <c r="E106" s="160"/>
+    </row>
+    <row r="107" spans="1:5" ht="26.1" customHeight="1">
+      <c r="A107" s="161" t="s">
+        <v>221</v>
+      </c>
+      <c r="B107" s="162"/>
+      <c r="C107" s="162"/>
+      <c r="D107" s="162"/>
+      <c r="E107" s="163"/>
+    </row>
+    <row r="108" spans="1:5" ht="24" customHeight="1">
+      <c r="A108" s="113">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B108" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="114"/>
+      <c r="D108" s="114"/>
+      <c r="E108" s="31"/>
+    </row>
+    <row r="109" spans="1:5" ht="24" customHeight="1">
+      <c r="A109" s="113"/>
+      <c r="B109" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109" s="114"/>
+      <c r="D109" s="114"/>
+      <c r="E109" s="31"/>
+    </row>
+    <row r="110" spans="1:5" ht="24" customHeight="1">
+      <c r="A110" s="113"/>
+      <c r="B110" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" s="114"/>
+      <c r="D110" s="114"/>
+      <c r="E110" s="31"/>
+    </row>
+    <row r="111" spans="1:5" ht="26.1" customHeight="1">
+      <c r="A111" s="161" t="s">
         <v>222</v>
       </c>
-      <c r="C92" s="121"/>
-      <c r="D92" s="145"/>
-      <c r="E92" s="29"/>
-    </row>
-    <row r="93" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A93" s="124"/>
-      <c r="B93" s="120" t="s">
+      <c r="B111" s="162"/>
+      <c r="C111" s="162"/>
+      <c r="D111" s="162"/>
+      <c r="E111" s="163"/>
+    </row>
+    <row r="112" spans="1:5" ht="24" customHeight="1">
+      <c r="A112" s="130">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B112" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112" s="121"/>
+      <c r="D112" s="121"/>
+      <c r="E112" s="29"/>
+    </row>
+    <row r="113" spans="1:5" ht="24" customHeight="1">
+      <c r="A113" s="130"/>
+      <c r="B113" s="121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="121"/>
+      <c r="D113" s="121"/>
+      <c r="E113" s="29"/>
+    </row>
+    <row r="114" spans="1:5" ht="24" customHeight="1">
+      <c r="A114" s="130"/>
+      <c r="B114" s="121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="121"/>
+      <c r="D114" s="121"/>
+      <c r="E114" s="29"/>
+    </row>
+    <row r="115" spans="1:5" ht="26.1" customHeight="1">
+      <c r="A115" s="161" t="s">
         <v>223</v>
       </c>
-      <c r="C93" s="121"/>
-      <c r="D93" s="145"/>
-      <c r="E93" s="29"/>
-    </row>
-    <row r="94" spans="1:5" ht="24" customHeight="1">
-      <c r="A94" s="125"/>
-      <c r="B94" s="120" t="s">
-        <v>224</v>
-      </c>
-      <c r="C94" s="121"/>
-      <c r="D94" s="145"/>
-      <c r="E94" s="29"/>
-    </row>
-    <row r="95" spans="1:5" ht="24" customHeight="1">
-      <c r="A95" s="134" t="s">
-        <v>185</v>
-      </c>
-      <c r="B95" s="110" t="s">
-        <v>111</v>
-      </c>
-      <c r="C95" s="110"/>
-      <c r="D95" s="110"/>
-      <c r="E95" s="111"/>
-    </row>
-    <row r="96" spans="1:5" ht="24" customHeight="1">
-      <c r="A96" s="134"/>
-      <c r="B96" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="C96" s="110"/>
-      <c r="D96" s="110"/>
-      <c r="E96" s="111"/>
-    </row>
-    <row r="97" spans="1:5" ht="24" customHeight="1">
-      <c r="A97" s="119" t="s">
-        <v>186</v>
-      </c>
-      <c r="B97" s="118" t="s">
-        <v>111</v>
-      </c>
-      <c r="C97" s="118"/>
-      <c r="D97" s="118"/>
-      <c r="E97" s="177"/>
-    </row>
-    <row r="98" spans="1:5" ht="24" customHeight="1">
-      <c r="A98" s="119"/>
-      <c r="B98" s="118" t="s">
-        <v>112</v>
-      </c>
-      <c r="C98" s="118"/>
-      <c r="D98" s="118"/>
-      <c r="E98" s="177"/>
-    </row>
-    <row r="99" spans="1:5" ht="24" customHeight="1">
-      <c r="A99" s="134" t="s">
-        <v>187</v>
-      </c>
-      <c r="B99" s="110" t="s">
-        <v>111</v>
-      </c>
-      <c r="C99" s="110"/>
-      <c r="D99" s="110"/>
-      <c r="E99" s="111"/>
-    </row>
-    <row r="100" spans="1:5" ht="24" customHeight="1">
-      <c r="A100" s="134"/>
-      <c r="B100" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="110"/>
-      <c r="D100" s="110"/>
-      <c r="E100" s="111"/>
-    </row>
-    <row r="101" spans="1:5" ht="24" customHeight="1">
-      <c r="A101" s="119" t="s">
-        <v>188</v>
-      </c>
-      <c r="B101" s="118" t="s">
-        <v>111</v>
-      </c>
-      <c r="C101" s="118"/>
-      <c r="D101" s="118"/>
-      <c r="E101" s="177"/>
-    </row>
-    <row r="102" spans="1:5" ht="24" customHeight="1">
-      <c r="A102" s="119"/>
-      <c r="B102" s="118" t="s">
-        <v>112</v>
-      </c>
-      <c r="C102" s="118"/>
-      <c r="D102" s="118"/>
-      <c r="E102" s="177"/>
-    </row>
-    <row r="103" spans="1:5" ht="24" customHeight="1">
-      <c r="A103" s="134" t="s">
-        <v>189</v>
-      </c>
-      <c r="B103" s="110" t="s">
-        <v>111</v>
-      </c>
-      <c r="C103" s="110"/>
-      <c r="D103" s="110"/>
-      <c r="E103" s="111"/>
-    </row>
-    <row r="104" spans="1:5" ht="24" customHeight="1">
-      <c r="A104" s="134"/>
-      <c r="B104" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="C104" s="110"/>
-      <c r="D104" s="110"/>
-      <c r="E104" s="111"/>
-    </row>
-    <row r="105" spans="1:5" ht="24" customHeight="1">
-      <c r="A105" s="119" t="s">
-        <v>190</v>
-      </c>
-      <c r="B105" s="118" t="s">
-        <v>111</v>
-      </c>
-      <c r="C105" s="118"/>
-      <c r="D105" s="118"/>
-      <c r="E105" s="177"/>
-    </row>
-    <row r="106" spans="1:5" ht="24" customHeight="1">
-      <c r="A106" s="119"/>
-      <c r="B106" s="118" t="s">
-        <v>112</v>
-      </c>
-      <c r="C106" s="118"/>
-      <c r="D106" s="118"/>
-      <c r="E106" s="177"/>
-    </row>
-    <row r="107" spans="1:5" ht="26.1" customHeight="1">
-      <c r="A107" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="B107" s="100"/>
-      <c r="C107" s="100"/>
-      <c r="D107" s="100"/>
-      <c r="E107" s="101"/>
-    </row>
-    <row r="108" spans="1:5" ht="24" customHeight="1">
-      <c r="A108" s="134">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B108" s="110" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108" s="110"/>
-      <c r="D108" s="110"/>
-      <c r="E108" s="31"/>
-    </row>
-    <row r="109" spans="1:5" ht="24" customHeight="1">
-      <c r="A109" s="134"/>
-      <c r="B109" s="110" t="s">
-        <v>52</v>
-      </c>
-      <c r="C109" s="110"/>
-      <c r="D109" s="110"/>
-      <c r="E109" s="31"/>
-    </row>
-    <row r="110" spans="1:5" ht="24" customHeight="1">
-      <c r="A110" s="134"/>
-      <c r="B110" s="110" t="s">
-        <v>35</v>
-      </c>
-      <c r="C110" s="110"/>
-      <c r="D110" s="110"/>
-      <c r="E110" s="31"/>
-    </row>
-    <row r="111" spans="1:5" ht="26.1" customHeight="1">
-      <c r="A111" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="B111" s="100"/>
-      <c r="C111" s="100"/>
-      <c r="D111" s="100"/>
-      <c r="E111" s="101"/>
-    </row>
-    <row r="112" spans="1:5" ht="24" customHeight="1">
-      <c r="A112" s="119">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="B112" s="118" t="s">
-        <v>33</v>
-      </c>
-      <c r="C112" s="118"/>
-      <c r="D112" s="118"/>
-      <c r="E112" s="29"/>
-    </row>
-    <row r="113" spans="1:5" ht="24" customHeight="1">
-      <c r="A113" s="119"/>
-      <c r="B113" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" s="118"/>
-      <c r="D113" s="118"/>
-      <c r="E113" s="29"/>
-    </row>
-    <row r="114" spans="1:5" ht="24" customHeight="1">
-      <c r="A114" s="119"/>
-      <c r="B114" s="118" t="s">
-        <v>20</v>
-      </c>
-      <c r="C114" s="118"/>
-      <c r="D114" s="118"/>
-      <c r="E114" s="29"/>
-    </row>
-    <row r="115" spans="1:5" ht="26.1" customHeight="1">
-      <c r="A115" s="99" t="s">
-        <v>228</v>
-      </c>
-      <c r="B115" s="100"/>
-      <c r="C115" s="100"/>
-      <c r="D115" s="100"/>
-      <c r="E115" s="101"/>
+      <c r="B115" s="162"/>
+      <c r="C115" s="162"/>
+      <c r="D115" s="162"/>
+      <c r="E115" s="163"/>
     </row>
     <row r="116" spans="1:5" ht="24" customHeight="1">
-      <c r="A116" s="102">
+      <c r="A116" s="110">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B116" s="136" t="s">
-        <v>113</v>
-      </c>
-      <c r="C116" s="136"/>
-      <c r="D116" s="136"/>
-      <c r="E116" s="137"/>
+      <c r="B116" s="248" t="s">
+        <v>108</v>
+      </c>
+      <c r="C116" s="248"/>
+      <c r="D116" s="248"/>
+      <c r="E116" s="249"/>
     </row>
     <row r="117" spans="1:5" ht="24" customHeight="1">
-      <c r="A117" s="104"/>
-      <c r="B117" s="114" t="s">
-        <v>46</v>
-      </c>
-      <c r="C117" s="110"/>
-      <c r="D117" s="110"/>
+      <c r="A117" s="111"/>
+      <c r="B117" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="C117" s="114"/>
+      <c r="D117" s="114"/>
       <c r="E117" s="31"/>
     </row>
     <row r="118" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A118" s="103"/>
+      <c r="A118" s="112"/>
       <c r="B118" s="48" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C118" s="33" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D118" s="35"/>
       <c r="E118" s="83"/>
     </row>
     <row r="119" spans="1:5" ht="24" customHeight="1">
-      <c r="A119" s="123">
+      <c r="A119" s="143">
         <v>1.1299999999999999</v>
       </c>
-      <c r="B119" s="118" t="s">
-        <v>47</v>
-      </c>
-      <c r="C119" s="118"/>
-      <c r="D119" s="118"/>
+      <c r="B119" s="121" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" s="121"/>
+      <c r="D119" s="121"/>
       <c r="E119" s="29"/>
     </row>
     <row r="120" spans="1:5" ht="24" customHeight="1">
-      <c r="A120" s="170"/>
-      <c r="B120" s="120" t="s">
-        <v>95</v>
-      </c>
-      <c r="C120" s="121"/>
-      <c r="D120" s="145"/>
+      <c r="A120" s="219"/>
+      <c r="B120" s="152" t="s">
+        <v>90</v>
+      </c>
+      <c r="C120" s="153"/>
+      <c r="D120" s="120"/>
       <c r="E120" s="29"/>
     </row>
     <row r="121" spans="1:5" ht="24" customHeight="1">
-      <c r="A121" s="170"/>
-      <c r="B121" s="118" t="s">
-        <v>94</v>
-      </c>
-      <c r="C121" s="118"/>
-      <c r="D121" s="118"/>
+      <c r="A121" s="219"/>
+      <c r="B121" s="121" t="s">
+        <v>89</v>
+      </c>
+      <c r="C121" s="121"/>
+      <c r="D121" s="121"/>
       <c r="E121" s="29"/>
     </row>
     <row r="122" spans="1:5" ht="45" customHeight="1">
-      <c r="A122" s="170"/>
+      <c r="A122" s="219"/>
       <c r="B122" s="50" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C122" s="56" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D122" s="57"/>
       <c r="E122" s="29"/>
     </row>
     <row r="123" spans="1:5" ht="24" customHeight="1">
-      <c r="A123" s="94" t="s">
-        <v>145</v>
-      </c>
-      <c r="B123" s="95"/>
-      <c r="C123" s="95"/>
-      <c r="D123" s="95"/>
-      <c r="E123" s="96"/>
+      <c r="A123" s="166" t="s">
+        <v>140</v>
+      </c>
+      <c r="B123" s="233"/>
+      <c r="C123" s="233"/>
+      <c r="D123" s="233"/>
+      <c r="E123" s="234"/>
     </row>
     <row r="124" spans="1:5" ht="26.1" customHeight="1">
-      <c r="A124" s="99" t="s">
+      <c r="A124" s="161" t="s">
+        <v>224</v>
+      </c>
+      <c r="B124" s="162"/>
+      <c r="C124" s="162"/>
+      <c r="D124" s="162"/>
+      <c r="E124" s="163"/>
+    </row>
+    <row r="125" spans="1:5" ht="24" customHeight="1">
+      <c r="A125" s="110">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="B125" s="200" t="s">
+        <v>110</v>
+      </c>
+      <c r="C125" s="203"/>
+      <c r="D125" s="203"/>
+      <c r="E125" s="250"/>
+    </row>
+    <row r="126" spans="1:5" ht="24" customHeight="1">
+      <c r="A126" s="111"/>
+      <c r="B126" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="C126" s="114"/>
+      <c r="D126" s="114"/>
+      <c r="E126" s="65"/>
+    </row>
+    <row r="127" spans="1:5" ht="34.35" customHeight="1">
+      <c r="A127" s="111"/>
+      <c r="B127" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="C127" s="114"/>
+      <c r="D127" s="139"/>
+      <c r="E127" s="67"/>
+    </row>
+    <row r="128" spans="1:5" ht="24" customHeight="1">
+      <c r="A128" s="111"/>
+      <c r="B128" s="251" t="s">
+        <v>225</v>
+      </c>
+      <c r="C128" s="252"/>
+      <c r="D128" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E128" s="82"/>
+    </row>
+    <row r="129" spans="1:5" ht="69" customHeight="1">
+      <c r="A129" s="111"/>
+      <c r="B129" s="114" t="s">
+        <v>226</v>
+      </c>
+      <c r="C129" s="114"/>
+      <c r="D129" s="139"/>
+      <c r="E129" s="67"/>
+    </row>
+    <row r="130" spans="1:5" ht="24" customHeight="1">
+      <c r="A130" s="112"/>
+      <c r="B130" s="251" t="s">
+        <v>228</v>
+      </c>
+      <c r="C130" s="252"/>
+      <c r="D130" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="E130" s="66"/>
+    </row>
+    <row r="131" spans="1:5" ht="26.1" customHeight="1">
+      <c r="A131" s="161" t="s">
         <v>229</v>
       </c>
-      <c r="B124" s="100"/>
-      <c r="C124" s="100"/>
-      <c r="D124" s="100"/>
-      <c r="E124" s="101"/>
-    </row>
-    <row r="125" spans="1:5" ht="24" customHeight="1">
-      <c r="A125" s="102">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="B125" s="138" t="s">
-        <v>115</v>
-      </c>
-      <c r="C125" s="139"/>
-      <c r="D125" s="139"/>
-      <c r="E125" s="140"/>
-    </row>
-    <row r="126" spans="1:5" ht="24" customHeight="1">
-      <c r="A126" s="104"/>
-      <c r="B126" s="110" t="s">
-        <v>96</v>
-      </c>
-      <c r="C126" s="110"/>
-      <c r="D126" s="110"/>
-      <c r="E126" s="65"/>
-    </row>
-    <row r="127" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A127" s="104"/>
-      <c r="B127" s="110" t="s">
-        <v>184</v>
-      </c>
-      <c r="C127" s="110"/>
-      <c r="D127" s="112"/>
-      <c r="E127" s="67"/>
-    </row>
-    <row r="128" spans="1:5" ht="24" customHeight="1">
-      <c r="A128" s="104"/>
-      <c r="B128" s="108" t="s">
-        <v>230</v>
-      </c>
-      <c r="C128" s="109"/>
-      <c r="D128" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="E128" s="82"/>
-    </row>
-    <row r="129" spans="1:5" ht="69" customHeight="1">
-      <c r="A129" s="104"/>
-      <c r="B129" s="110" t="s">
-        <v>231</v>
-      </c>
-      <c r="C129" s="110"/>
-      <c r="D129" s="112"/>
-      <c r="E129" s="67"/>
-    </row>
-    <row r="130" spans="1:5" ht="24" customHeight="1">
-      <c r="A130" s="103"/>
-      <c r="B130" s="108" t="s">
-        <v>233</v>
-      </c>
-      <c r="C130" s="109"/>
-      <c r="D130" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="E130" s="66"/>
-    </row>
-    <row r="131" spans="1:5" ht="26.1" customHeight="1">
-      <c r="A131" s="99" t="s">
-        <v>234</v>
-      </c>
-      <c r="B131" s="100"/>
-      <c r="C131" s="100"/>
-      <c r="D131" s="100"/>
-      <c r="E131" s="101"/>
+      <c r="B131" s="162"/>
+      <c r="C131" s="162"/>
+      <c r="D131" s="162"/>
+      <c r="E131" s="163"/>
     </row>
     <row r="132" spans="1:5" ht="47.1" customHeight="1">
-      <c r="A132" s="119">
+      <c r="A132" s="130">
         <v>1.1599999999999999</v>
       </c>
-      <c r="B132" s="246" t="s">
-        <v>166</v>
-      </c>
-      <c r="C132" s="246"/>
-      <c r="D132" s="246"/>
-      <c r="E132" s="264"/>
+      <c r="B132" s="131" t="s">
+        <v>161</v>
+      </c>
+      <c r="C132" s="131"/>
+      <c r="D132" s="131"/>
+      <c r="E132" s="109"/>
     </row>
     <row r="133" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A133" s="119"/>
-      <c r="B133" s="265" t="s">
-        <v>17</v>
-      </c>
-      <c r="C133" s="265"/>
-      <c r="D133" s="265"/>
-      <c r="E133" s="264"/>
+      <c r="A133" s="130"/>
+      <c r="B133" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" s="119"/>
+      <c r="D133" s="119"/>
+      <c r="E133" s="109"/>
     </row>
     <row r="134" spans="1:5" ht="47.1" customHeight="1">
-      <c r="A134" s="119"/>
-      <c r="B134" s="256" t="s">
-        <v>167</v>
-      </c>
-      <c r="C134" s="257"/>
-      <c r="D134" s="197"/>
+      <c r="A134" s="130"/>
+      <c r="B134" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="C134" s="101"/>
+      <c r="D134" s="102"/>
       <c r="E134" s="81"/>
     </row>
     <row r="135" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A135" s="119"/>
-      <c r="B135" s="118" t="s">
-        <v>168</v>
-      </c>
-      <c r="C135" s="118"/>
-      <c r="D135" s="118"/>
+      <c r="A135" s="130"/>
+      <c r="B135" s="121" t="s">
+        <v>163</v>
+      </c>
+      <c r="C135" s="121"/>
+      <c r="D135" s="121"/>
       <c r="E135" s="29"/>
     </row>
     <row r="136" spans="1:5" ht="24" customHeight="1">
-      <c r="A136" s="119"/>
-      <c r="B136" s="118" t="s">
-        <v>170</v>
-      </c>
-      <c r="C136" s="118"/>
-      <c r="D136" s="118"/>
+      <c r="A136" s="130"/>
+      <c r="B136" s="121" t="s">
+        <v>165</v>
+      </c>
+      <c r="C136" s="121"/>
+      <c r="D136" s="121"/>
       <c r="E136" s="29"/>
     </row>
     <row r="137" spans="1:5" ht="24" customHeight="1">
-      <c r="A137" s="119"/>
-      <c r="B137" s="118" t="s">
-        <v>169</v>
-      </c>
-      <c r="C137" s="118"/>
-      <c r="D137" s="118"/>
+      <c r="A137" s="130"/>
+      <c r="B137" s="121" t="s">
+        <v>164</v>
+      </c>
+      <c r="C137" s="121"/>
+      <c r="D137" s="121"/>
       <c r="E137" s="29"/>
     </row>
     <row r="138" spans="1:5" ht="24" customHeight="1">
-      <c r="A138" s="134">
+      <c r="A138" s="113">
         <v>1.17</v>
       </c>
-      <c r="B138" s="110" t="s">
-        <v>23</v>
-      </c>
-      <c r="C138" s="110"/>
-      <c r="D138" s="110"/>
+      <c r="B138" s="114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="114"/>
+      <c r="D138" s="114"/>
       <c r="E138" s="31"/>
     </row>
     <row r="139" spans="1:5" ht="47.1" customHeight="1">
-      <c r="A139" s="134"/>
+      <c r="A139" s="113"/>
       <c r="B139" s="32" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C139" s="34" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D139" s="35"/>
       <c r="E139" s="78"/>
     </row>
     <row r="140" spans="1:5" ht="24" customHeight="1">
-      <c r="A140" s="123">
+      <c r="A140" s="143">
         <v>1.18</v>
       </c>
-      <c r="B140" s="118" t="s">
-        <v>41</v>
-      </c>
-      <c r="C140" s="118"/>
-      <c r="D140" s="118"/>
+      <c r="B140" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140" s="121"/>
+      <c r="D140" s="121"/>
       <c r="E140" s="29"/>
     </row>
     <row r="141" spans="1:5" ht="24" customHeight="1">
-      <c r="A141" s="125"/>
-      <c r="B141" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="C141" s="121"/>
-      <c r="D141" s="145"/>
+      <c r="A141" s="145"/>
+      <c r="B141" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="C141" s="153"/>
+      <c r="D141" s="120"/>
       <c r="E141" s="29"/>
     </row>
     <row r="142" spans="1:5" ht="26.1" customHeight="1">
-      <c r="A142" s="99" t="s">
-        <v>235</v>
-      </c>
-      <c r="B142" s="100"/>
-      <c r="C142" s="100"/>
-      <c r="D142" s="100"/>
-      <c r="E142" s="101"/>
+      <c r="A142" s="161" t="s">
+        <v>230</v>
+      </c>
+      <c r="B142" s="162"/>
+      <c r="C142" s="162"/>
+      <c r="D142" s="162"/>
+      <c r="E142" s="163"/>
     </row>
     <row r="143" spans="1:5" ht="24" customHeight="1">
-      <c r="A143" s="102">
+      <c r="A143" s="110">
         <v>1.19</v>
       </c>
-      <c r="B143" s="248" t="s">
-        <v>149</v>
-      </c>
-      <c r="C143" s="248"/>
-      <c r="D143" s="248"/>
-      <c r="E143" s="249"/>
+      <c r="B143" s="136" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143" s="136"/>
+      <c r="D143" s="136"/>
+      <c r="E143" s="137"/>
     </row>
     <row r="144" spans="1:5" ht="24" customHeight="1">
-      <c r="A144" s="104"/>
-      <c r="B144" s="113" t="s">
-        <v>101</v>
-      </c>
-      <c r="C144" s="113"/>
-      <c r="D144" s="114"/>
+      <c r="A144" s="111"/>
+      <c r="B144" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="C144" s="138"/>
+      <c r="D144" s="115"/>
       <c r="E144" s="80"/>
     </row>
     <row r="145" spans="1:5" ht="24" customHeight="1">
-      <c r="A145" s="104"/>
-      <c r="B145" s="243" t="s">
-        <v>171</v>
-      </c>
-      <c r="C145" s="128"/>
-      <c r="D145" s="129"/>
+      <c r="A145" s="111"/>
+      <c r="B145" s="147" t="s">
+        <v>166</v>
+      </c>
+      <c r="C145" s="148"/>
+      <c r="D145" s="149"/>
       <c r="E145" s="80"/>
     </row>
     <row r="146" spans="1:5" ht="24" customHeight="1">
-      <c r="A146" s="104"/>
-      <c r="B146" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="C146" s="128"/>
-      <c r="D146" s="129"/>
+      <c r="A146" s="111"/>
+      <c r="B146" s="138" t="s">
+        <v>145</v>
+      </c>
+      <c r="C146" s="148"/>
+      <c r="D146" s="149"/>
       <c r="E146" s="80"/>
     </row>
     <row r="147" spans="1:5" ht="24" customHeight="1">
-      <c r="A147" s="104"/>
-      <c r="B147" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="C147" s="113"/>
-      <c r="D147" s="114"/>
+      <c r="A147" s="111"/>
+      <c r="B147" s="138" t="s">
+        <v>97</v>
+      </c>
+      <c r="C147" s="138"/>
+      <c r="D147" s="115"/>
       <c r="E147" s="80"/>
     </row>
     <row r="148" spans="1:5" ht="24" customHeight="1">
-      <c r="A148" s="104"/>
-      <c r="B148" s="113" t="s">
-        <v>103</v>
-      </c>
-      <c r="C148" s="113"/>
-      <c r="D148" s="114"/>
+      <c r="A148" s="111"/>
+      <c r="B148" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="C148" s="138"/>
+      <c r="D148" s="115"/>
       <c r="E148" s="80"/>
     </row>
     <row r="149" spans="1:5" ht="24" customHeight="1">
-      <c r="A149" s="103"/>
-      <c r="B149" s="113" t="s">
-        <v>104</v>
-      </c>
-      <c r="C149" s="113"/>
-      <c r="D149" s="114"/>
+      <c r="A149" s="112"/>
+      <c r="B149" s="138" t="s">
+        <v>99</v>
+      </c>
+      <c r="C149" s="138"/>
+      <c r="D149" s="115"/>
       <c r="E149" s="80"/>
     </row>
     <row r="150" spans="1:5" ht="36" customHeight="1">
-      <c r="A150" s="266" t="s">
-        <v>271</v>
-      </c>
-      <c r="B150" s="267"/>
-      <c r="C150" s="267"/>
-      <c r="D150" s="267"/>
-      <c r="E150" s="268"/>
+      <c r="A150" s="122" t="s">
+        <v>265</v>
+      </c>
+      <c r="B150" s="123"/>
+      <c r="C150" s="123"/>
+      <c r="D150" s="123"/>
+      <c r="E150" s="124"/>
     </row>
     <row r="151" spans="1:5" ht="26.1" customHeight="1">
-      <c r="A151" s="99" t="s">
-        <v>236</v>
-      </c>
-      <c r="B151" s="100"/>
-      <c r="C151" s="100"/>
-      <c r="D151" s="100"/>
-      <c r="E151" s="101"/>
+      <c r="A151" s="161" t="s">
+        <v>231</v>
+      </c>
+      <c r="B151" s="162"/>
+      <c r="C151" s="162"/>
+      <c r="D151" s="162"/>
+      <c r="E151" s="163"/>
     </row>
     <row r="152" spans="1:5" ht="24" customHeight="1">
-      <c r="A152" s="123">
+      <c r="A152" s="143">
         <v>1.2</v>
       </c>
-      <c r="B152" s="126" t="s">
-        <v>270</v>
-      </c>
-      <c r="C152" s="126"/>
-      <c r="D152" s="126"/>
-      <c r="E152" s="127"/>
+      <c r="B152" s="257"/>
+      <c r="C152" s="257"/>
+      <c r="D152" s="257"/>
+      <c r="E152" s="258"/>
     </row>
     <row r="153" spans="1:5" ht="24" customHeight="1">
-      <c r="A153" s="124"/>
-      <c r="B153" s="145" t="s">
+      <c r="A153" s="144"/>
+      <c r="B153" s="120"/>
+      <c r="C153" s="121"/>
+      <c r="D153" s="121"/>
+      <c r="E153" s="29"/>
+    </row>
+    <row r="154" spans="1:5" ht="34.35" customHeight="1">
+      <c r="A154" s="144"/>
+      <c r="B154" s="120"/>
+      <c r="C154" s="121"/>
+      <c r="D154" s="121"/>
+      <c r="E154" s="71"/>
+    </row>
+    <row r="155" spans="1:5" ht="24" customHeight="1">
+      <c r="A155" s="144"/>
+      <c r="B155" s="120"/>
+      <c r="C155" s="121"/>
+      <c r="D155" s="152"/>
+      <c r="E155" s="64"/>
+    </row>
+    <row r="156" spans="1:5" ht="24" customHeight="1">
+      <c r="A156" s="144"/>
+      <c r="B156" s="95"/>
+      <c r="C156" s="96"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="79"/>
+    </row>
+    <row r="157" spans="1:5" ht="24" customHeight="1">
+      <c r="A157" s="144"/>
+      <c r="B157" s="120"/>
+      <c r="C157" s="121"/>
+      <c r="D157" s="121"/>
+      <c r="E157" s="29"/>
+    </row>
+    <row r="158" spans="1:5" ht="24" customHeight="1">
+      <c r="A158" s="145"/>
+      <c r="B158" s="120"/>
+      <c r="C158" s="121"/>
+      <c r="D158" s="121"/>
+      <c r="E158" s="29"/>
+    </row>
+    <row r="159" spans="1:5" ht="26.1" customHeight="1">
+      <c r="A159" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="B159" s="162"/>
+      <c r="C159" s="162"/>
+      <c r="D159" s="162"/>
+      <c r="E159" s="163"/>
+    </row>
+    <row r="160" spans="1:5" ht="24" customHeight="1">
+      <c r="A160" s="110">
+        <v>1.21</v>
+      </c>
+      <c r="B160" s="114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="114"/>
+      <c r="D160" s="114"/>
+      <c r="E160" s="31"/>
+    </row>
+    <row r="161" spans="1:5" ht="24" customHeight="1">
+      <c r="A161" s="111"/>
+      <c r="B161" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161" s="114"/>
+      <c r="D161" s="114"/>
+      <c r="E161" s="31"/>
+    </row>
+    <row r="162" spans="1:5" ht="34.35" customHeight="1">
+      <c r="A162" s="111"/>
+      <c r="B162" s="114" t="s">
+        <v>266</v>
+      </c>
+      <c r="C162" s="114"/>
+      <c r="D162" s="114"/>
+      <c r="E162" s="75"/>
+    </row>
+    <row r="163" spans="1:5" ht="24" customHeight="1">
+      <c r="A163" s="111"/>
+      <c r="B163" s="114" t="s">
+        <v>267</v>
+      </c>
+      <c r="C163" s="114"/>
+      <c r="D163" s="139"/>
+      <c r="E163" s="263"/>
+    </row>
+    <row r="164" spans="1:5" ht="24" customHeight="1">
+      <c r="A164" s="111"/>
+      <c r="B164" s="125" t="s">
+        <v>146</v>
+      </c>
+      <c r="C164" s="126"/>
+      <c r="D164" s="127"/>
+      <c r="E164" s="264"/>
+    </row>
+    <row r="165" spans="1:5" ht="24" customHeight="1">
+      <c r="A165" s="111"/>
+      <c r="B165" s="251" t="s">
         <v>1</v>
       </c>
-      <c r="C153" s="118"/>
-      <c r="D153" s="118"/>
-      <c r="E153" s="29"/>
-    </row>
-    <row r="154" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A154" s="124"/>
-      <c r="B154" s="145" t="s">
-        <v>272</v>
-      </c>
-      <c r="C154" s="118"/>
-      <c r="D154" s="118"/>
-      <c r="E154" s="71"/>
-    </row>
-    <row r="155" spans="1:5" ht="24" customHeight="1">
-      <c r="A155" s="124"/>
-      <c r="B155" s="145" t="s">
-        <v>21</v>
-      </c>
-      <c r="C155" s="118"/>
-      <c r="D155" s="120"/>
-      <c r="E155" s="64"/>
-    </row>
-    <row r="156" spans="1:5" ht="24" customHeight="1">
-      <c r="A156" s="124"/>
-      <c r="B156" s="251" t="s">
-        <v>2</v>
-      </c>
-      <c r="C156" s="252"/>
-      <c r="D156" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E156" s="79"/>
-    </row>
-    <row r="157" spans="1:5" ht="24" customHeight="1">
-      <c r="A157" s="124"/>
-      <c r="B157" s="145" t="s">
-        <v>51</v>
-      </c>
-      <c r="C157" s="118"/>
-      <c r="D157" s="118"/>
-      <c r="E157" s="29"/>
-    </row>
-    <row r="158" spans="1:5" ht="24" customHeight="1">
-      <c r="A158" s="125"/>
-      <c r="B158" s="145" t="s">
-        <v>34</v>
-      </c>
-      <c r="C158" s="118"/>
-      <c r="D158" s="118"/>
-      <c r="E158" s="29"/>
-    </row>
-    <row r="159" spans="1:5" ht="26.1" customHeight="1">
-      <c r="A159" s="99" t="s">
-        <v>237</v>
-      </c>
-      <c r="B159" s="100"/>
-      <c r="C159" s="100"/>
-      <c r="D159" s="100"/>
-      <c r="E159" s="101"/>
-    </row>
-    <row r="160" spans="1:5" ht="24" customHeight="1">
-      <c r="A160" s="102">
-        <v>1.21</v>
-      </c>
-      <c r="B160" s="110" t="s">
-        <v>22</v>
-      </c>
-      <c r="C160" s="110"/>
-      <c r="D160" s="110"/>
-      <c r="E160" s="31"/>
-    </row>
-    <row r="161" spans="1:5" ht="24" customHeight="1">
-      <c r="A161" s="104"/>
-      <c r="B161" s="110" t="s">
-        <v>40</v>
-      </c>
-      <c r="C161" s="110"/>
-      <c r="D161" s="110"/>
-      <c r="E161" s="31"/>
-    </row>
-    <row r="162" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A162" s="104"/>
-      <c r="B162" s="110" t="s">
-        <v>273</v>
-      </c>
-      <c r="C162" s="110"/>
-      <c r="D162" s="110"/>
-      <c r="E162" s="75"/>
-    </row>
-    <row r="163" spans="1:5" ht="24" customHeight="1">
-      <c r="A163" s="104"/>
-      <c r="B163" s="110" t="s">
-        <v>274</v>
-      </c>
-      <c r="C163" s="110"/>
-      <c r="D163" s="112"/>
-      <c r="E163" s="97"/>
-    </row>
-    <row r="164" spans="1:5" ht="24" customHeight="1">
-      <c r="A164" s="104"/>
-      <c r="B164" s="233" t="s">
-        <v>151</v>
-      </c>
-      <c r="C164" s="234"/>
-      <c r="D164" s="235"/>
-      <c r="E164" s="98"/>
-    </row>
-    <row r="165" spans="1:5" ht="24" customHeight="1">
-      <c r="A165" s="104"/>
-      <c r="B165" s="108" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" s="109"/>
+      <c r="C165" s="252"/>
       <c r="D165" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E165" s="78"/>
     </row>
     <row r="166" spans="1:5" ht="24" customHeight="1">
-      <c r="A166" s="104"/>
-      <c r="B166" s="112" t="s">
-        <v>172</v>
-      </c>
-      <c r="C166" s="113"/>
-      <c r="D166" s="114"/>
+      <c r="A166" s="111"/>
+      <c r="B166" s="139" t="s">
+        <v>167</v>
+      </c>
+      <c r="C166" s="138"/>
+      <c r="D166" s="115"/>
       <c r="E166" s="78"/>
     </row>
     <row r="167" spans="1:5" ht="24" customHeight="1">
-      <c r="A167" s="104"/>
-      <c r="B167" s="112" t="s">
-        <v>173</v>
-      </c>
-      <c r="C167" s="113"/>
-      <c r="D167" s="114"/>
+      <c r="A167" s="111"/>
+      <c r="B167" s="139" t="s">
+        <v>168</v>
+      </c>
+      <c r="C167" s="138"/>
+      <c r="D167" s="115"/>
       <c r="E167" s="78"/>
     </row>
     <row r="168" spans="1:5" ht="24" customHeight="1">
-      <c r="A168" s="104"/>
-      <c r="B168" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="C168" s="110"/>
-      <c r="D168" s="110"/>
+      <c r="A168" s="111"/>
+      <c r="B168" s="114" t="s">
+        <v>94</v>
+      </c>
+      <c r="C168" s="114"/>
+      <c r="D168" s="114"/>
       <c r="E168" s="31"/>
     </row>
     <row r="169" spans="1:5" ht="24" customHeight="1">
-      <c r="A169" s="104"/>
-      <c r="B169" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C169" s="110"/>
-      <c r="D169" s="110"/>
+      <c r="A169" s="111"/>
+      <c r="B169" s="114" t="s">
+        <v>136</v>
+      </c>
+      <c r="C169" s="114"/>
+      <c r="D169" s="114"/>
       <c r="E169" s="31"/>
     </row>
     <row r="170" spans="1:5" ht="24" customHeight="1">
-      <c r="A170" s="103"/>
-      <c r="B170" s="110" t="s">
-        <v>100</v>
-      </c>
-      <c r="C170" s="110"/>
-      <c r="D170" s="110"/>
+      <c r="A170" s="112"/>
+      <c r="B170" s="114" t="s">
+        <v>95</v>
+      </c>
+      <c r="C170" s="114"/>
+      <c r="D170" s="114"/>
       <c r="E170" s="31"/>
     </row>
     <row r="171" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
       <c r="A171" s="37">
         <v>1.22</v>
       </c>
-      <c r="B171" s="247" t="s">
-        <v>174</v>
-      </c>
-      <c r="C171" s="247"/>
-      <c r="D171" s="247"/>
+      <c r="B171" s="135" t="s">
+        <v>169</v>
+      </c>
+      <c r="C171" s="135"/>
+      <c r="D171" s="135"/>
       <c r="E171" s="76"/>
     </row>
     <row r="172" spans="1:5" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A172" s="94" t="s">
-        <v>145</v>
-      </c>
-      <c r="B172" s="231"/>
-      <c r="C172" s="231"/>
-      <c r="D172" s="231"/>
-      <c r="E172" s="232"/>
+      <c r="A172" s="166" t="s">
+        <v>140</v>
+      </c>
+      <c r="B172" s="167"/>
+      <c r="C172" s="167"/>
+      <c r="D172" s="167"/>
+      <c r="E172" s="168"/>
     </row>
     <row r="173" spans="1:5" ht="36" customHeight="1" thickBot="1">
-      <c r="A173" s="130" t="s">
-        <v>30</v>
-      </c>
-      <c r="B173" s="131"/>
-      <c r="C173" s="131"/>
-      <c r="D173" s="131"/>
+      <c r="A173" s="259" t="s">
+        <v>27</v>
+      </c>
+      <c r="B173" s="260"/>
+      <c r="C173" s="260"/>
+      <c r="D173" s="260"/>
       <c r="E173" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="34.35" customHeight="1">
+      <c r="A174" s="261">
+        <v>2</v>
+      </c>
+      <c r="B174" s="262" t="s">
+        <v>111</v>
+      </c>
+      <c r="C174" s="262"/>
+      <c r="D174" s="262"/>
+      <c r="E174" s="77"/>
+    </row>
+    <row r="175" spans="1:5" ht="24" customHeight="1">
+      <c r="A175" s="130"/>
+      <c r="B175" s="121" t="s">
+        <v>170</v>
+      </c>
+      <c r="C175" s="121"/>
+      <c r="D175" s="121"/>
+      <c r="E175" s="29"/>
+    </row>
+    <row r="176" spans="1:5" ht="24" customHeight="1">
+      <c r="A176" s="110">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="B176" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="C176" s="114"/>
+      <c r="D176" s="114"/>
+      <c r="E176" s="31"/>
+    </row>
+    <row r="177" spans="1:5" ht="24" customHeight="1">
+      <c r="A177" s="111"/>
+      <c r="B177" s="146" t="s">
+        <v>151</v>
+      </c>
+      <c r="C177" s="146"/>
+      <c r="D177" s="146"/>
+      <c r="E177" s="31"/>
+    </row>
+    <row r="178" spans="1:5" ht="24" customHeight="1">
+      <c r="A178" s="111"/>
+      <c r="B178" s="139" t="s">
+        <v>38</v>
+      </c>
+      <c r="C178" s="138"/>
+      <c r="D178" s="115"/>
+      <c r="E178" s="31"/>
+    </row>
+    <row r="179" spans="1:5" ht="24" customHeight="1">
+      <c r="A179" s="111"/>
+      <c r="B179" s="132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="133"/>
+      <c r="D179" s="134"/>
+      <c r="E179" s="31"/>
+    </row>
+    <row r="180" spans="1:5" ht="24" customHeight="1">
+      <c r="A180" s="111"/>
+      <c r="B180" s="132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" s="133"/>
+      <c r="D180" s="134"/>
+      <c r="E180" s="31"/>
+    </row>
+    <row r="181" spans="1:5" ht="24" customHeight="1">
+      <c r="A181" s="111"/>
+      <c r="B181" s="125" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A174" s="132">
+      <c r="C181" s="126"/>
+      <c r="D181" s="127"/>
+      <c r="E181" s="31"/>
+    </row>
+    <row r="182" spans="1:5" ht="34.35" customHeight="1">
+      <c r="A182" s="111"/>
+      <c r="B182" s="128" t="s">
+        <v>93</v>
+      </c>
+      <c r="C182" s="150" t="s">
+        <v>92</v>
+      </c>
+      <c r="D182" s="154"/>
+      <c r="E182" s="155"/>
+    </row>
+    <row r="183" spans="1:5" ht="11.4" customHeight="1">
+      <c r="A183" s="112"/>
+      <c r="B183" s="129"/>
+      <c r="C183" s="151"/>
+      <c r="D183" s="156"/>
+      <c r="E183" s="157"/>
+    </row>
+    <row r="184" spans="1:5" ht="26.1" customHeight="1">
+      <c r="A184" s="161" t="s">
+        <v>233</v>
+      </c>
+      <c r="B184" s="162"/>
+      <c r="C184" s="162"/>
+      <c r="D184" s="162"/>
+      <c r="E184" s="163"/>
+    </row>
+    <row r="185" spans="1:5" ht="24" customHeight="1">
+      <c r="A185" s="130">
+        <v>2.02</v>
+      </c>
+      <c r="B185" s="121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185" s="121"/>
+      <c r="D185" s="121"/>
+      <c r="E185" s="29"/>
+    </row>
+    <row r="186" spans="1:5" ht="24" customHeight="1">
+      <c r="A186" s="130"/>
+      <c r="B186" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" s="121"/>
+      <c r="D186" s="121"/>
+      <c r="E186" s="29"/>
+    </row>
+    <row r="187" spans="1:5" ht="34.35" customHeight="1">
+      <c r="A187" s="130"/>
+      <c r="B187" s="121" t="s">
+        <v>171</v>
+      </c>
+      <c r="C187" s="121"/>
+      <c r="D187" s="121"/>
+      <c r="E187" s="29"/>
+    </row>
+    <row r="188" spans="1:5" ht="24" customHeight="1">
+      <c r="A188" s="130"/>
+      <c r="B188" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="C188" s="121"/>
+      <c r="D188" s="121"/>
+      <c r="E188" s="29"/>
+    </row>
+    <row r="189" spans="1:5" ht="26.1" customHeight="1">
+      <c r="A189" s="161" t="s">
+        <v>234</v>
+      </c>
+      <c r="B189" s="162"/>
+      <c r="C189" s="162"/>
+      <c r="D189" s="162"/>
+      <c r="E189" s="163"/>
+    </row>
+    <row r="190" spans="1:5" ht="24" customHeight="1">
+      <c r="A190" s="113">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="B190" s="114" t="s">
+        <v>173</v>
+      </c>
+      <c r="C190" s="114"/>
+      <c r="D190" s="114"/>
+      <c r="E190" s="31"/>
+    </row>
+    <row r="191" spans="1:5" ht="24" customHeight="1">
+      <c r="A191" s="113"/>
+      <c r="B191" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B174" s="133" t="s">
-        <v>116</v>
-      </c>
-      <c r="C174" s="133"/>
-      <c r="D174" s="133"/>
-      <c r="E174" s="77"/>
-    </row>
-    <row r="175" spans="1:5" ht="24" customHeight="1">
-      <c r="A175" s="119"/>
-      <c r="B175" s="118" t="s">
-        <v>175</v>
-      </c>
-      <c r="C175" s="118"/>
-      <c r="D175" s="118"/>
-      <c r="E175" s="29"/>
-    </row>
-    <row r="176" spans="1:5" ht="24" customHeight="1">
-      <c r="A176" s="102">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="B176" s="110" t="s">
-        <v>158</v>
-      </c>
-      <c r="C176" s="110"/>
-      <c r="D176" s="110"/>
-      <c r="E176" s="31"/>
-    </row>
-    <row r="177" spans="1:5" ht="24" customHeight="1">
-      <c r="A177" s="104"/>
-      <c r="B177" s="135" t="s">
-        <v>156</v>
-      </c>
-      <c r="C177" s="135"/>
-      <c r="D177" s="135"/>
-      <c r="E177" s="31"/>
-    </row>
-    <row r="178" spans="1:5" ht="24" customHeight="1">
-      <c r="A178" s="104"/>
-      <c r="B178" s="112" t="s">
-        <v>42</v>
-      </c>
-      <c r="C178" s="113"/>
-      <c r="D178" s="114"/>
-      <c r="E178" s="31"/>
-    </row>
-    <row r="179" spans="1:5" ht="24" customHeight="1">
-      <c r="A179" s="104"/>
-      <c r="B179" s="227" t="s">
-        <v>10</v>
-      </c>
-      <c r="C179" s="228"/>
-      <c r="D179" s="229"/>
-      <c r="E179" s="31"/>
-    </row>
-    <row r="180" spans="1:5" ht="24" customHeight="1">
-      <c r="A180" s="104"/>
-      <c r="B180" s="227" t="s">
-        <v>11</v>
-      </c>
-      <c r="C180" s="228"/>
-      <c r="D180" s="229"/>
-      <c r="E180" s="31"/>
-    </row>
-    <row r="181" spans="1:5" ht="24" customHeight="1">
-      <c r="A181" s="104"/>
-      <c r="B181" s="233" t="s">
-        <v>31</v>
-      </c>
-      <c r="C181" s="234"/>
-      <c r="D181" s="235"/>
-      <c r="E181" s="31"/>
-    </row>
-    <row r="182" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A182" s="104"/>
-      <c r="B182" s="269" t="s">
-        <v>98</v>
-      </c>
-      <c r="C182" s="244" t="s">
-        <v>97</v>
-      </c>
-      <c r="D182" s="236"/>
-      <c r="E182" s="237"/>
-    </row>
-    <row r="183" spans="1:5" ht="11.45" customHeight="1">
-      <c r="A183" s="103"/>
-      <c r="B183" s="270"/>
-      <c r="C183" s="245"/>
-      <c r="D183" s="238"/>
-      <c r="E183" s="239"/>
-    </row>
-    <row r="184" spans="1:5" ht="26.1" customHeight="1">
-      <c r="A184" s="99" t="s">
+      <c r="C191" s="114"/>
+      <c r="D191" s="114"/>
+      <c r="E191" s="159"/>
+    </row>
+    <row r="192" spans="1:5" ht="45" customHeight="1">
+      <c r="A192" s="113"/>
+      <c r="B192" s="146" t="s">
+        <v>192</v>
+      </c>
+      <c r="C192" s="146"/>
+      <c r="D192" s="146"/>
+      <c r="E192" s="159"/>
+    </row>
+    <row r="193" spans="1:5" ht="24" customHeight="1">
+      <c r="A193" s="113"/>
+      <c r="B193" s="146" t="s">
+        <v>127</v>
+      </c>
+      <c r="C193" s="146"/>
+      <c r="D193" s="146"/>
+      <c r="E193" s="159"/>
+    </row>
+    <row r="194" spans="1:5" ht="24" customHeight="1">
+      <c r="A194" s="113"/>
+      <c r="B194" s="114" t="s">
         <v>238</v>
       </c>
-      <c r="B184" s="100"/>
-      <c r="C184" s="100"/>
-      <c r="D184" s="100"/>
-      <c r="E184" s="101"/>
-    </row>
-    <row r="185" spans="1:5" ht="24" customHeight="1">
-      <c r="A185" s="119">
-        <v>2.02</v>
-      </c>
-      <c r="B185" s="118" t="s">
-        <v>26</v>
-      </c>
-      <c r="C185" s="118"/>
-      <c r="D185" s="118"/>
-      <c r="E185" s="29"/>
-    </row>
-    <row r="186" spans="1:5" ht="24" customHeight="1">
-      <c r="A186" s="119"/>
-      <c r="B186" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="C186" s="118"/>
-      <c r="D186" s="118"/>
-      <c r="E186" s="29"/>
-    </row>
-    <row r="187" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A187" s="119"/>
-      <c r="B187" s="118" t="s">
-        <v>176</v>
-      </c>
-      <c r="C187" s="118"/>
-      <c r="D187" s="118"/>
-      <c r="E187" s="29"/>
-    </row>
-    <row r="188" spans="1:5" ht="24" customHeight="1">
-      <c r="A188" s="119"/>
-      <c r="B188" s="118" t="s">
-        <v>27</v>
-      </c>
-      <c r="C188" s="118"/>
-      <c r="D188" s="118"/>
-      <c r="E188" s="29"/>
-    </row>
-    <row r="189" spans="1:5" ht="26.1" customHeight="1">
-      <c r="A189" s="99" t="s">
+      <c r="C194" s="114"/>
+      <c r="D194" s="114"/>
+      <c r="E194" s="31"/>
+    </row>
+    <row r="195" spans="1:5" ht="26.1" customHeight="1">
+      <c r="A195" s="161" t="s">
+        <v>235</v>
+      </c>
+      <c r="B195" s="162"/>
+      <c r="C195" s="162"/>
+      <c r="D195" s="162"/>
+      <c r="E195" s="163"/>
+    </row>
+    <row r="196" spans="1:5" ht="24" customHeight="1">
+      <c r="A196" s="143">
+        <v>2.04</v>
+      </c>
+      <c r="B196" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="C196" s="121"/>
+      <c r="D196" s="121"/>
+      <c r="E196" s="29"/>
+    </row>
+    <row r="197" spans="1:5" ht="24" customHeight="1">
+      <c r="A197" s="144"/>
+      <c r="B197" s="121" t="s">
+        <v>40</v>
+      </c>
+      <c r="C197" s="121"/>
+      <c r="D197" s="121"/>
+      <c r="E197" s="29"/>
+    </row>
+    <row r="198" spans="1:5" ht="24" customHeight="1">
+      <c r="A198" s="144"/>
+      <c r="B198" s="121" t="s">
+        <v>147</v>
+      </c>
+      <c r="C198" s="121"/>
+      <c r="D198" s="121"/>
+      <c r="E198" s="29"/>
+    </row>
+    <row r="199" spans="1:5" ht="24" customHeight="1">
+      <c r="A199" s="144"/>
+      <c r="B199" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="C199" s="121"/>
+      <c r="D199" s="121"/>
+      <c r="E199" s="46"/>
+    </row>
+    <row r="200" spans="1:5" ht="24" customHeight="1">
+      <c r="A200" s="144"/>
+      <c r="B200" s="121" t="s">
+        <v>44</v>
+      </c>
+      <c r="C200" s="121"/>
+      <c r="D200" s="121"/>
+      <c r="E200" s="29"/>
+    </row>
+    <row r="201" spans="1:5" ht="59.1" customHeight="1">
+      <c r="A201" s="145"/>
+      <c r="B201" s="140" t="s">
         <v>239</v>
       </c>
-      <c r="B189" s="100"/>
-      <c r="C189" s="100"/>
-      <c r="D189" s="100"/>
-      <c r="E189" s="101"/>
-    </row>
-    <row r="190" spans="1:5" ht="24" customHeight="1">
-      <c r="A190" s="134">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="B190" s="110" t="s">
-        <v>178</v>
-      </c>
-      <c r="C190" s="110"/>
-      <c r="D190" s="110"/>
-      <c r="E190" s="31"/>
-    </row>
-    <row r="191" spans="1:5" ht="24" customHeight="1">
-      <c r="A191" s="134"/>
-      <c r="B191" s="110" t="s">
-        <v>4</v>
-      </c>
-      <c r="C191" s="110"/>
-      <c r="D191" s="110"/>
-      <c r="E191" s="111"/>
-    </row>
-    <row r="192" spans="1:5" ht="45" customHeight="1">
-      <c r="A192" s="134"/>
-      <c r="B192" s="135" t="s">
-        <v>197</v>
-      </c>
-      <c r="C192" s="135"/>
-      <c r="D192" s="135"/>
-      <c r="E192" s="111"/>
-    </row>
-    <row r="193" spans="1:5" ht="24" customHeight="1">
-      <c r="A193" s="134"/>
-      <c r="B193" s="135" t="s">
-        <v>132</v>
-      </c>
-      <c r="C193" s="135"/>
-      <c r="D193" s="135"/>
-      <c r="E193" s="111"/>
-    </row>
-    <row r="194" spans="1:5" ht="24" customHeight="1">
-      <c r="A194" s="134"/>
-      <c r="B194" s="110" t="s">
-        <v>243</v>
-      </c>
-      <c r="C194" s="110"/>
-      <c r="D194" s="110"/>
-      <c r="E194" s="31"/>
-    </row>
-    <row r="195" spans="1:5" ht="26.1" customHeight="1">
-      <c r="A195" s="99" t="s">
-        <v>240</v>
-      </c>
-      <c r="B195" s="100"/>
-      <c r="C195" s="100"/>
-      <c r="D195" s="100"/>
-      <c r="E195" s="101"/>
-    </row>
-    <row r="196" spans="1:5" ht="24" customHeight="1">
-      <c r="A196" s="123">
-        <v>2.04</v>
-      </c>
-      <c r="B196" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="C196" s="118"/>
-      <c r="D196" s="118"/>
-      <c r="E196" s="29"/>
-    </row>
-    <row r="197" spans="1:5" ht="24" customHeight="1">
-      <c r="A197" s="124"/>
-      <c r="B197" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="C197" s="118"/>
-      <c r="D197" s="118"/>
-      <c r="E197" s="29"/>
-    </row>
-    <row r="198" spans="1:5" ht="24" customHeight="1">
-      <c r="A198" s="124"/>
-      <c r="B198" s="118" t="s">
-        <v>152</v>
-      </c>
-      <c r="C198" s="118"/>
-      <c r="D198" s="118"/>
-      <c r="E198" s="29"/>
-    </row>
-    <row r="199" spans="1:5" ht="24" customHeight="1">
-      <c r="A199" s="124"/>
-      <c r="B199" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="C199" s="118"/>
-      <c r="D199" s="118"/>
-      <c r="E199" s="46"/>
-    </row>
-    <row r="200" spans="1:5" ht="24" customHeight="1">
-      <c r="A200" s="124"/>
-      <c r="B200" s="118" t="s">
-        <v>48</v>
-      </c>
-      <c r="C200" s="118"/>
-      <c r="D200" s="118"/>
-      <c r="E200" s="29"/>
-    </row>
-    <row r="201" spans="1:5" ht="59.1" customHeight="1">
-      <c r="A201" s="125"/>
-      <c r="B201" s="240" t="s">
-        <v>244</v>
-      </c>
-      <c r="C201" s="241"/>
-      <c r="D201" s="242"/>
+      <c r="C201" s="141"/>
+      <c r="D201" s="142"/>
       <c r="E201" s="29"/>
     </row>
     <row r="202" spans="1:5" ht="24" customHeight="1">
-      <c r="A202" s="94" t="s">
-        <v>145</v>
-      </c>
-      <c r="B202" s="95"/>
-      <c r="C202" s="95"/>
-      <c r="D202" s="95"/>
-      <c r="E202" s="96"/>
+      <c r="A202" s="166" t="s">
+        <v>140</v>
+      </c>
+      <c r="B202" s="233"/>
+      <c r="C202" s="233"/>
+      <c r="D202" s="233"/>
+      <c r="E202" s="234"/>
     </row>
     <row r="203" spans="1:5" ht="26.1" customHeight="1">
-      <c r="A203" s="99" t="s">
-        <v>241</v>
-      </c>
-      <c r="B203" s="100"/>
-      <c r="C203" s="100"/>
-      <c r="D203" s="100"/>
-      <c r="E203" s="101"/>
+      <c r="A203" s="161" t="s">
+        <v>236</v>
+      </c>
+      <c r="B203" s="162"/>
+      <c r="C203" s="162"/>
+      <c r="D203" s="162"/>
+      <c r="E203" s="163"/>
     </row>
     <row r="204" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A204" s="134">
+      <c r="A204" s="113">
         <v>2.0499999999999998</v>
       </c>
-      <c r="B204" s="110" t="s">
-        <v>24</v>
-      </c>
-      <c r="C204" s="110"/>
-      <c r="D204" s="110"/>
+      <c r="B204" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C204" s="114"/>
+      <c r="D204" s="114"/>
       <c r="E204" s="31"/>
     </row>
     <row r="205" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A205" s="134"/>
+      <c r="A205" s="113"/>
       <c r="B205" s="32" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C205" s="34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D205" s="35"/>
       <c r="E205" s="31"/>
     </row>
     <row r="206" spans="1:5" ht="24" customHeight="1">
-      <c r="A206" s="119">
+      <c r="A206" s="130">
         <v>2.06</v>
       </c>
-      <c r="B206" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="C206" s="118"/>
-      <c r="D206" s="118"/>
+      <c r="B206" s="121" t="s">
+        <v>34</v>
+      </c>
+      <c r="C206" s="121"/>
+      <c r="D206" s="121"/>
       <c r="E206" s="29"/>
     </row>
     <row r="207" spans="1:5" ht="24" customHeight="1">
-      <c r="A207" s="119"/>
-      <c r="B207" s="118" t="s">
-        <v>49</v>
-      </c>
-      <c r="C207" s="118"/>
-      <c r="D207" s="118"/>
+      <c r="A207" s="130"/>
+      <c r="B207" s="121" t="s">
+        <v>45</v>
+      </c>
+      <c r="C207" s="121"/>
+      <c r="D207" s="121"/>
       <c r="E207" s="29"/>
     </row>
     <row r="208" spans="1:5" ht="24" customHeight="1">
-      <c r="A208" s="119"/>
-      <c r="B208" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="C208" s="118"/>
-      <c r="D208" s="118"/>
+      <c r="A208" s="130"/>
+      <c r="B208" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C208" s="121"/>
+      <c r="D208" s="121"/>
       <c r="E208" s="29"/>
     </row>
-    <row r="209" spans="1:5" ht="27.95" customHeight="1">
-      <c r="A209" s="119"/>
+    <row r="209" spans="1:5" ht="27.9" customHeight="1">
+      <c r="A209" s="130"/>
       <c r="B209" s="19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C209" s="26" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D209" s="25"/>
       <c r="E209" s="29"/>
     </row>
     <row r="210" spans="1:5" ht="47.1" customHeight="1">
-      <c r="A210" s="102">
+      <c r="A210" s="110">
         <v>2.0699999999999998</v>
       </c>
-      <c r="B210" s="261" t="s">
-        <v>246</v>
+      <c r="B210" s="106" t="s">
+        <v>241</v>
       </c>
       <c r="C210" s="44" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D210" s="63"/>
       <c r="E210" s="31"/>
     </row>
     <row r="211" spans="1:5" ht="47.1" customHeight="1">
-      <c r="A211" s="104"/>
-      <c r="B211" s="262"/>
+      <c r="A211" s="111"/>
+      <c r="B211" s="107"/>
       <c r="C211" s="44" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D211" s="63"/>
       <c r="E211" s="31"/>
     </row>
     <row r="212" spans="1:5" ht="47.1" customHeight="1">
-      <c r="A212" s="104"/>
-      <c r="B212" s="263"/>
+      <c r="A212" s="111"/>
+      <c r="B212" s="108"/>
       <c r="C212" s="44" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D212" s="63"/>
       <c r="E212" s="31"/>
     </row>
     <row r="213" spans="1:5" ht="92.1" customHeight="1">
-      <c r="A213" s="104"/>
-      <c r="B213" s="105" t="s">
-        <v>252</v>
-      </c>
-      <c r="C213" s="106"/>
-      <c r="D213" s="107"/>
+      <c r="A213" s="111"/>
+      <c r="B213" s="265" t="s">
+        <v>247</v>
+      </c>
+      <c r="C213" s="266"/>
+      <c r="D213" s="267"/>
       <c r="E213" s="31"/>
     </row>
     <row r="214" spans="1:5" ht="68.099999999999994" customHeight="1">
-      <c r="A214" s="104"/>
-      <c r="B214" s="105" t="s">
-        <v>275</v>
-      </c>
-      <c r="C214" s="106"/>
-      <c r="D214" s="107"/>
+      <c r="A214" s="111"/>
+      <c r="B214" s="265" t="s">
+        <v>268</v>
+      </c>
+      <c r="C214" s="266"/>
+      <c r="D214" s="267"/>
       <c r="E214" s="31"/>
     </row>
-    <row r="215" spans="1:5" ht="47.45" customHeight="1">
-      <c r="A215" s="103"/>
+    <row r="215" spans="1:5" ht="47.4" customHeight="1">
+      <c r="A215" s="112"/>
       <c r="B215" s="43" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C215" s="39" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D215" s="63"/>
       <c r="E215" s="31"/>
@@ -7048,141 +6971,141 @@
       <c r="A216" s="45">
         <v>2.08</v>
       </c>
-      <c r="B216" s="117" t="s">
-        <v>268</v>
-      </c>
-      <c r="C216" s="117"/>
-      <c r="D216" s="117"/>
+      <c r="B216" s="269" t="s">
+        <v>263</v>
+      </c>
+      <c r="C216" s="269"/>
+      <c r="D216" s="269"/>
       <c r="E216" s="29"/>
     </row>
     <row r="217" spans="1:5" ht="26.1" customHeight="1">
-      <c r="A217" s="99" t="s">
-        <v>242</v>
-      </c>
-      <c r="B217" s="100"/>
-      <c r="C217" s="100"/>
-      <c r="D217" s="100"/>
-      <c r="E217" s="101"/>
+      <c r="A217" s="161" t="s">
+        <v>237</v>
+      </c>
+      <c r="B217" s="162"/>
+      <c r="C217" s="162"/>
+      <c r="D217" s="162"/>
+      <c r="E217" s="163"/>
     </row>
     <row r="218" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A218" s="102">
+      <c r="A218" s="110">
         <v>2.09</v>
       </c>
-      <c r="B218" s="116" t="s">
-        <v>266</v>
-      </c>
-      <c r="C218" s="116"/>
-      <c r="D218" s="116"/>
+      <c r="B218" s="164" t="s">
+        <v>261</v>
+      </c>
+      <c r="C218" s="164"/>
+      <c r="D218" s="164"/>
       <c r="E218" s="31"/>
     </row>
     <row r="219" spans="1:5" ht="24" customHeight="1">
-      <c r="A219" s="103"/>
-      <c r="B219" s="258" t="s">
-        <v>267</v>
-      </c>
-      <c r="C219" s="259"/>
-      <c r="D219" s="260"/>
+      <c r="A219" s="112"/>
+      <c r="B219" s="103" t="s">
+        <v>262</v>
+      </c>
+      <c r="C219" s="104"/>
+      <c r="D219" s="105"/>
       <c r="E219" s="31"/>
     </row>
     <row r="220" spans="1:5" ht="26.1" customHeight="1">
-      <c r="A220" s="99" t="s">
-        <v>269</v>
-      </c>
-      <c r="B220" s="100"/>
-      <c r="C220" s="100"/>
-      <c r="D220" s="100"/>
-      <c r="E220" s="101"/>
+      <c r="A220" s="161" t="s">
+        <v>264</v>
+      </c>
+      <c r="B220" s="162"/>
+      <c r="C220" s="162"/>
+      <c r="D220" s="162"/>
+      <c r="E220" s="163"/>
     </row>
     <row r="221" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A221" s="119">
+      <c r="A221" s="130">
         <v>2.1</v>
       </c>
-      <c r="B221" s="117" t="s">
-        <v>153</v>
-      </c>
-      <c r="C221" s="117"/>
-      <c r="D221" s="117"/>
+      <c r="B221" s="269" t="s">
+        <v>148</v>
+      </c>
+      <c r="C221" s="269"/>
+      <c r="D221" s="269"/>
       <c r="E221" s="29"/>
     </row>
     <row r="222" spans="1:5" ht="24" customHeight="1">
-      <c r="A222" s="119"/>
-      <c r="B222" s="118" t="s">
+      <c r="A222" s="130"/>
+      <c r="B222" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C222" s="121"/>
+      <c r="D222" s="121"/>
+      <c r="E222" s="29"/>
+    </row>
+    <row r="223" spans="1:5" ht="34.35" customHeight="1">
+      <c r="A223" s="130"/>
+      <c r="B223" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="C223" s="152"/>
+      <c r="D223" s="153"/>
+      <c r="E223" s="270"/>
+    </row>
+    <row r="224" spans="1:5" ht="34.35" customHeight="1">
+      <c r="A224" s="130"/>
+      <c r="B224" s="121" t="s">
+        <v>258</v>
+      </c>
+      <c r="C224" s="121"/>
+      <c r="D224" s="121"/>
+      <c r="E224" s="29"/>
+    </row>
+    <row r="225" spans="1:5" ht="24" customHeight="1">
+      <c r="A225" s="110">
+        <v>2.11</v>
+      </c>
+      <c r="B225" s="139" t="s">
         <v>249</v>
       </c>
-      <c r="C222" s="118"/>
-      <c r="D222" s="118"/>
-      <c r="E222" s="29"/>
-    </row>
-    <row r="223" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A223" s="119"/>
-      <c r="B223" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="C223" s="120"/>
-      <c r="D223" s="121"/>
-      <c r="E223" s="122"/>
-    </row>
-    <row r="224" spans="1:5" ht="34.35" customHeight="1">
-      <c r="A224" s="119"/>
-      <c r="B224" s="118" t="s">
-        <v>263</v>
-      </c>
-      <c r="C224" s="118"/>
-      <c r="D224" s="118"/>
-      <c r="E224" s="29"/>
-    </row>
-    <row r="225" spans="1:5" ht="24" customHeight="1">
-      <c r="A225" s="102">
-        <v>2.11</v>
-      </c>
-      <c r="B225" s="112" t="s">
-        <v>254</v>
-      </c>
-      <c r="C225" s="113"/>
-      <c r="D225" s="114"/>
+      <c r="C225" s="138"/>
+      <c r="D225" s="115"/>
       <c r="E225" s="75"/>
     </row>
     <row r="226" spans="1:5" ht="24" customHeight="1">
-      <c r="A226" s="104"/>
-      <c r="B226" s="116" t="s">
-        <v>264</v>
-      </c>
-      <c r="C226" s="230"/>
-      <c r="D226" s="230"/>
+      <c r="A226" s="111"/>
+      <c r="B226" s="164" t="s">
+        <v>259</v>
+      </c>
+      <c r="C226" s="165"/>
+      <c r="D226" s="165"/>
       <c r="E226" s="75"/>
     </row>
     <row r="227" spans="1:5" ht="24" customHeight="1">
-      <c r="A227" s="104"/>
-      <c r="B227" s="110" t="s">
-        <v>255</v>
-      </c>
-      <c r="C227" s="110"/>
-      <c r="D227" s="110"/>
+      <c r="A227" s="111"/>
+      <c r="B227" s="114" t="s">
+        <v>250</v>
+      </c>
+      <c r="C227" s="114"/>
+      <c r="D227" s="114"/>
       <c r="E227" s="75"/>
     </row>
     <row r="228" spans="1:5" ht="24" customHeight="1">
-      <c r="A228" s="103"/>
-      <c r="B228" s="110" t="s">
-        <v>256</v>
-      </c>
-      <c r="C228" s="110"/>
-      <c r="D228" s="110"/>
+      <c r="A228" s="112"/>
+      <c r="B228" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="C228" s="114"/>
+      <c r="D228" s="114"/>
       <c r="E228" s="75"/>
     </row>
     <row r="229" spans="1:5" ht="24" customHeight="1" thickBot="1">
       <c r="A229" s="37">
         <v>2.12</v>
       </c>
-      <c r="B229" s="115" t="s">
-        <v>265</v>
-      </c>
-      <c r="C229" s="115"/>
-      <c r="D229" s="115"/>
+      <c r="B229" s="268" t="s">
+        <v>260</v>
+      </c>
+      <c r="C229" s="268"/>
+      <c r="D229" s="268"/>
       <c r="E229" s="76"/>
     </row>
-    <row r="230" spans="1:5" ht="30.95" customHeight="1">
+    <row r="230" spans="1:5" ht="30.9" customHeight="1">
       <c r="A230" s="23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B230" s="58"/>
       <c r="C230" s="22" t="s">
@@ -7234,60 +7157,60 @@
       <c r="E236" s="10"/>
     </row>
     <row r="237" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A237" s="94" t="s">
-        <v>145</v>
-      </c>
-      <c r="B237" s="95"/>
-      <c r="C237" s="95"/>
-      <c r="D237" s="95"/>
-      <c r="E237" s="96"/>
+      <c r="A237" s="166" t="s">
+        <v>140</v>
+      </c>
+      <c r="B237" s="233"/>
+      <c r="C237" s="233"/>
+      <c r="D237" s="233"/>
+      <c r="E237" s="234"/>
     </row>
     <row r="238" spans="1:5" ht="21.75" customHeight="1">
       <c r="A238" s="86" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B238" s="27" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D238" s="27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E238" s="87" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="17.25" customHeight="1">
       <c r="A239" s="86" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B239" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C239" s="28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D239" s="28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E239" s="88" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="30.75" customHeight="1">
       <c r="A240" s="86" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B240" s="19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C240" s="20">
         <v>449</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E240" s="89">
         <v>40995</v>
@@ -7295,16 +7218,16 @@
     </row>
     <row r="241" spans="1:5" ht="17.25" customHeight="1">
       <c r="A241" s="86" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B241" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C241" s="20">
         <v>624</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E241" s="89">
         <v>41122</v>
@@ -7312,16 +7235,16 @@
     </row>
     <row r="242" spans="1:5" ht="30.75" customHeight="1">
       <c r="A242" s="86" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B242" s="19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C242" s="20">
         <v>624</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E242" s="89">
         <v>41122</v>
@@ -7329,16 +7252,16 @@
     </row>
     <row r="243" spans="1:5" ht="25.5" customHeight="1">
       <c r="A243" s="86" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B243" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C243" s="20">
         <v>773</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E243" s="89">
         <v>41396</v>
@@ -7346,16 +7269,16 @@
     </row>
     <row r="244" spans="1:5" ht="33.75" customHeight="1">
       <c r="A244" s="86" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B244" s="19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C244" s="20">
         <v>791</v>
       </c>
       <c r="D244" s="20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E244" s="89">
         <v>41443</v>
@@ -7363,16 +7286,16 @@
     </row>
     <row r="245" spans="1:5" ht="25.5" customHeight="1">
       <c r="A245" s="86" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B245" s="19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C245" s="20">
         <v>12698</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E245" s="89">
         <v>41809</v>
@@ -7380,16 +7303,16 @@
     </row>
     <row r="246" spans="1:5" ht="29.25" customHeight="1">
       <c r="A246" s="86" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B246" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C246" s="20">
         <v>13404</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E246" s="89">
         <v>42522</v>
@@ -7397,16 +7320,16 @@
     </row>
     <row r="247" spans="1:5" ht="29.25" customHeight="1">
       <c r="A247" s="86" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B247" s="19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C247" s="20">
         <v>13994</v>
       </c>
       <c r="D247" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E247" s="89">
         <v>43293</v>
@@ -7414,16 +7337,16 @@
     </row>
     <row r="248" spans="1:5" ht="22.5" customHeight="1">
       <c r="A248" s="86" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B248" s="19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C248" s="20">
         <v>14007</v>
       </c>
       <c r="D248" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E248" s="89">
         <v>43319</v>
@@ -7431,16 +7354,16 @@
     </row>
     <row r="249" spans="1:5" ht="22.5" customHeight="1">
       <c r="A249" s="86" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B249" s="19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C249" s="20">
         <v>14243</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E249" s="89">
         <v>43728</v>
@@ -7448,16 +7371,16 @@
     </row>
     <row r="250" spans="1:5" ht="22.5" customHeight="1">
       <c r="A250" s="90" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B250" s="41" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C250" s="42">
         <v>14261</v>
       </c>
       <c r="D250" s="42" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E250" s="91">
         <v>43739</v>
@@ -7465,16 +7388,16 @@
     </row>
     <row r="251" spans="1:5" ht="22.5" customHeight="1">
       <c r="A251" s="90" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B251" s="41" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C251" s="42">
         <v>14348</v>
       </c>
       <c r="D251" s="42" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E251" s="91">
         <v>43964</v>
@@ -7482,16 +7405,16 @@
     </row>
     <row r="252" spans="1:5" ht="31.5" customHeight="1" thickBot="1">
       <c r="A252" s="92" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B252" s="84" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C252" s="85">
         <v>14775</v>
       </c>
       <c r="D252" s="85" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E252" s="93">
         <v>44695</v>
@@ -7499,6 +7422,245 @@
     </row>
   </sheetData>
   <mergeCells count="263">
+    <mergeCell ref="A237:E237"/>
+    <mergeCell ref="A202:E202"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:E217"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="B214:D214"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B169:D169"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="E191:E193"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="A220:E220"/>
+    <mergeCell ref="B229:D229"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="B221:D221"/>
+    <mergeCell ref="B222:D222"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="B216:D216"/>
+    <mergeCell ref="B224:D224"/>
+    <mergeCell ref="C223:E223"/>
+    <mergeCell ref="B227:D227"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A152:A158"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="A184:E184"/>
+    <mergeCell ref="A189:E189"/>
+    <mergeCell ref="A195:E195"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B175:D175"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B192:D192"/>
+    <mergeCell ref="B193:D193"/>
+    <mergeCell ref="B194:D194"/>
+    <mergeCell ref="A190:A194"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:E47"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="B180:D180"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B226:D226"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A210:A215"/>
+    <mergeCell ref="D182:E183"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="A160:A170"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B206:D206"/>
+    <mergeCell ref="B207:D207"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="B198:D198"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="B200:D200"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="A196:A201"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="B186:D186"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="A132:A137"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="A176:A183"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="A143:A149"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B138:D138"/>
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="B134:D134"/>
@@ -7523,245 +7685,6 @@
     <mergeCell ref="A150:E150"/>
     <mergeCell ref="B181:D181"/>
     <mergeCell ref="B182:B183"/>
-    <mergeCell ref="A132:A137"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="B179:D179"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="A176:A183"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="A143:A149"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="B228:D228"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B206:D206"/>
-    <mergeCell ref="B207:D207"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="B198:D198"/>
-    <mergeCell ref="B199:D199"/>
-    <mergeCell ref="B200:D200"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="A196:A201"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="B178:D178"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="B185:D185"/>
-    <mergeCell ref="B186:D186"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A210:A215"/>
-    <mergeCell ref="D182:E183"/>
-    <mergeCell ref="B163:D163"/>
-    <mergeCell ref="A160:A170"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="B180:D180"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B226:D226"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B155:D155"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:A36"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="A54:A61"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:E47"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="B125:E125"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A142:E142"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A152:A158"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="A184:E184"/>
-    <mergeCell ref="A189:E189"/>
-    <mergeCell ref="A195:E195"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B175:D175"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="B192:D192"/>
-    <mergeCell ref="B193:D193"/>
-    <mergeCell ref="B194:D194"/>
-    <mergeCell ref="A190:A194"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="B160:D160"/>
-    <mergeCell ref="A237:E237"/>
-    <mergeCell ref="A202:E202"/>
-    <mergeCell ref="E163:E164"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:E217"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="B213:D213"/>
-    <mergeCell ref="B214:D214"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="B170:D170"/>
-    <mergeCell ref="E191:E193"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="A220:E220"/>
-    <mergeCell ref="B229:D229"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="B221:D221"/>
-    <mergeCell ref="B222:D222"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="B216:D216"/>
-    <mergeCell ref="B224:D224"/>
-    <mergeCell ref="C223:E223"/>
-    <mergeCell ref="B227:D227"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="62" fitToHeight="5" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
